--- a/data/pitcher_data/2024_era_data.xlsx
+++ b/data/pitcher_data/2024_era_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C856"/>
+  <dimension ref="A1:C867"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3090,10 +3090,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>carl edwards jr.</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr"/>
+          <t>scott effross</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -3101,11 +3103,11 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>scott effross</t>
+          <t>zach eflin</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>5.4</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="207">
@@ -3114,11 +3116,11 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>zach eflin</t>
+          <t>brandon eisert</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>3.56</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="208">
@@ -3127,11 +3129,11 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>brandon eisert</t>
+          <t>bryce elder</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>4.05</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="209">
@@ -3140,11 +3142,11 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>bryce elder</t>
+          <t>fraser ellard</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>6.52</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="210">
@@ -3153,11 +3155,11 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>fraser ellard</t>
+          <t>kent emanuel</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>3.75</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="211">
@@ -3166,11 +3168,11 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>kent emanuel</t>
+          <t>mason englert</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>6.62</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="212">
@@ -3179,11 +3181,11 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>mason englert</t>
+          <t>nathan eovaldi</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>5.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="213">
@@ -3192,11 +3194,11 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>nathan eovaldi</t>
+          <t>lucas erceg</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>3.8</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="214">
@@ -3205,11 +3207,11 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>lucas erceg</t>
+          <t>paolo espino</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>3.33</v>
+        <v>8.31</v>
       </c>
     </row>
     <row r="215">
@@ -3218,11 +3220,11 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>paolo espino</t>
+          <t>joey estes</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>8.31</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="216">
@@ -3231,11 +3233,11 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>joey estes</t>
+          <t>carlos estévez</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>5.01</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="217">
@@ -3244,11 +3246,11 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>carlos estévez</t>
+          <t>jeremiah estrada</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>2.5</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="218">
@@ -3257,11 +3259,11 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>jeremiah estrada</t>
+          <t>alex faedo</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>2.76</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="219">
@@ -3270,11 +3272,11 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>alex faedo</t>
+          <t>pete fairbanks</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>3.61</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="220">
@@ -3283,11 +3285,11 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>pete fairbanks</t>
+          <t>bailey falter</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>3.57</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="221">
@@ -3296,11 +3298,11 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>bailey falter</t>
+          <t>buck farmer</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>4.43</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="222">
@@ -3309,11 +3311,11 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>buck farmer</t>
+          <t>kyle farmer</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>3.04</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="223">
@@ -3322,11 +3324,11 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>kyle farmer</t>
+          <t>calvin faucher</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>6.75</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="224">
@@ -3335,11 +3337,11 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>calvin faucher</t>
+          <t>erick fedde</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>3.19</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="225">
@@ -3348,11 +3350,11 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>erick fedde</t>
+          <t>brady feigl</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>3.3</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="226">
@@ -3361,11 +3363,11 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>brady feigl</t>
+          <t>ryan feltner</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>32.4</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="227">
@@ -3374,11 +3376,11 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ryan feltner</t>
+          <t>caleb ferguson</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>4.49</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="228">
@@ -3387,11 +3389,11 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>caleb ferguson</t>
+          <t>tyler ferguson</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>4.61</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="229">
@@ -3400,11 +3402,11 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>tyler ferguson</t>
+          <t>ryan fernandez</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>3.68</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="230">
@@ -3413,7 +3415,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ryan fernandez</t>
+          <t>jose a. ferrer</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -3426,11 +3428,11 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>jose a. ferrer</t>
+          <t>david festa</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>3.38</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="232">
@@ -3439,11 +3441,11 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>david festa</t>
+          <t>matt festa</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="233">
@@ -3452,11 +3454,11 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>matt festa</t>
+          <t>j.p. feyereisen</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>5.7</v>
+        <v>8.18</v>
       </c>
     </row>
     <row r="234">
@@ -3465,11 +3467,11 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>j.p. feyereisen</t>
+          <t>kyle finnegan</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>8.18</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="235">
@@ -3478,11 +3480,11 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>kyle finnegan</t>
+          <t>richard fitts</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>3.68</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="236">
@@ -3491,11 +3493,11 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>richard fitts</t>
+          <t>tyler fitzgerald</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>1.74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="237">
@@ -3504,11 +3506,11 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>tyler fitzgerald</t>
+          <t>jack flaherty</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>9</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="238">
@@ -3517,11 +3519,11 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>jack flaherty</t>
+          <t>josh fleming</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>3.67</v>
+        <v>4.02</v>
       </c>
     </row>
     <row r="239">
@@ -3530,11 +3532,11 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>josh fleming</t>
+          <t>chris flexen</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>4.02</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="240">
@@ -3543,11 +3545,11 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>chris flexen</t>
+          <t>dylan floro</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>4.95</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="241">
@@ -3556,11 +3558,11 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>dylan floro</t>
+          <t>jason foley</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>3.8</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="242">
@@ -3569,11 +3571,11 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>jason foley</t>
+          <t>matt foster</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>3.28</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="243">
@@ -3582,11 +3584,11 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>matt foster</t>
+          <t>j.p. france</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>2.7</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="244">
@@ -3595,11 +3597,11 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>j.p. france</t>
+          <t>bowden francis</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>7.46</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="245">
@@ -3608,11 +3610,11 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>bowden francis</t>
+          <t>kyle freeland</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>3.3</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="246">
@@ -3621,11 +3623,11 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>kyle freeland</t>
+          <t>luis frías</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>5.24</v>
+        <v>13.97</v>
       </c>
     </row>
     <row r="247">
@@ -3634,11 +3636,11 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>luis frías</t>
+          <t>max fried</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>13.97</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="248">
@@ -3647,11 +3649,11 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>max fried</t>
+          <t>carson fulmer</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>3.47</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="249">
@@ -3660,11 +3662,11 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>carson fulmer</t>
+          <t>kody funderburk</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>4.15</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="250">
@@ -3673,11 +3675,11 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>kody funderburk</t>
+          <t>hunter gaddis</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>6.49</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="251">
@@ -3686,11 +3688,11 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>hunter gaddis</t>
+          <t>giovanny gallegos</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>1.87</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="252">
@@ -3699,11 +3701,11 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>giovanny gallegos</t>
+          <t>zac gallen</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>6.53</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="253">
@@ -3712,11 +3714,11 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>zac gallen</t>
+          <t>gerson garabito</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>3.65</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="254">
@@ -3725,11 +3727,11 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>gerson garabito</t>
+          <t>deivi garcía</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>4.78</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="255">
@@ -3738,11 +3740,11 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>deivi garcía</t>
+          <t>luis garcía</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>7.07</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="256">
@@ -3751,11 +3753,11 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>luis garcía</t>
+          <t>robert garcia</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>4.78</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="257">
@@ -3764,11 +3766,11 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>robert garcia</t>
+          <t>yimi garcía</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>4.22</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="258">
@@ -3777,11 +3779,11 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>yimi garcía</t>
+          <t>amir garrett</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>3.46</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="259">
@@ -3790,11 +3792,11 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>amir garrett</t>
+          <t>braxton garrett</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>5.06</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="260">
@@ -3803,11 +3805,11 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>braxton garrett</t>
+          <t>reed garrett</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>5.35</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="261">
@@ -3816,11 +3818,11 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>reed garrett</t>
+          <t>robert gasser</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>3.97</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="262">
@@ -3829,11 +3831,11 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>robert gasser</t>
+          <t>kevin gausman</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>2.57</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="263">
@@ -3842,11 +3844,11 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>kevin gausman</t>
+          <t>domingo germán</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>3.83</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="264">
@@ -3855,11 +3857,11 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>domingo germán</t>
+          <t>ian gibaut</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>7.84</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="265">
@@ -3868,11 +3870,11 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>ian gibaut</t>
+          <t>kyle gibson</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>4.5</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="266">
@@ -3881,11 +3883,11 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>kyle gibson</t>
+          <t>luis gil</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>4.24</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="267">
@@ -3894,11 +3896,11 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>luis gil</t>
+          <t>logan gilbert</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>3.66</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="268">
@@ -3907,11 +3909,11 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>logan gilbert</t>
+          <t>tyler gilbert</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>3.23</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="269">
@@ -3920,11 +3922,11 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>tyler gilbert</t>
+          <t>lucas gilbreath</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>3.24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="270">
@@ -3933,11 +3935,11 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>lucas gilbreath</t>
+          <t>logan gillaspie</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>54</v>
+        <v>7.15</v>
       </c>
     </row>
     <row r="271">
@@ -3946,11 +3948,11 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>logan gillaspie</t>
+          <t>connor gillispie</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>7.15</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="272">
@@ -3959,11 +3961,11 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>connor gillispie</t>
+          <t>kevin ginkel</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>2.25</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="273">
@@ -3972,11 +3974,11 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>kevin ginkel</t>
+          <t>j.t. ginn</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>3.21</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="274">
@@ -3985,11 +3987,11 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>j.t. ginn</t>
+          <t>tyler glasnow</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>4.24</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="275">
@@ -3998,11 +4000,11 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>tyler glasnow</t>
+          <t>austin gomber</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>3.49</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="276">
@@ -4011,11 +4013,11 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>austin gomber</t>
+          <t>yoendrys gómez</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>4.75</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="277">
@@ -4024,11 +4026,11 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>yoendrys gómez</t>
+          <t>marco gonzales</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>3.97</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="278">
@@ -4037,11 +4039,11 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>marco gonzales</t>
+          <t>victor gonzález</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>4.54</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="279">
@@ -4050,11 +4052,11 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>victor gonzález</t>
+          <t>tanner gordon</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>3.86</v>
+        <v>8.65</v>
       </c>
     </row>
     <row r="280">
@@ -4063,11 +4065,11 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>tanner gordon</t>
+          <t>mackenzie gore</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>8.65</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="281">
@@ -4076,11 +4078,11 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>mackenzie gore</t>
+          <t>anthony gose</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>3.9</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="282">
@@ -4089,11 +4091,11 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>anthony gose</t>
+          <t>gordon graceffo</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>10.38</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="283">
@@ -4102,11 +4104,11 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>gordon graceffo</t>
+          <t>brusdar graterol</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>4.7</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="284">
@@ -4115,11 +4117,11 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>brusdar graterol</t>
+          <t>jon gray</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>2.79</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="285">
@@ -4128,11 +4130,11 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>jon gray</t>
+          <t>josiah gray</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>4.47</v>
+        <v>14.04</v>
       </c>
     </row>
     <row r="286">
@@ -4141,11 +4143,11 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>josiah gray</t>
+          <t>sonny gray</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>14.04</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="287">
@@ -4154,11 +4156,11 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>sonny gray</t>
+          <t>chad green</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>3.84</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="288">
@@ -4167,11 +4169,11 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>chad green</t>
+          <t>hunter greene</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>3.27</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="289">
@@ -4180,11 +4182,11 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>hunter greene</t>
+          <t>michael grove</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>2.75</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="290">
@@ -4193,11 +4195,11 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>michael grove</t>
+          <t>sean guenther</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>5.26</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="291">
@@ -4206,11 +4208,11 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>sean guenther</t>
+          <t>luis guerrero</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -4219,11 +4221,11 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>luis guerrero</t>
+          <t>luis guillorme</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="293">
@@ -4232,11 +4234,11 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>luis guillorme</t>
+          <t>vladimir gutierrez</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>12</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="294">
@@ -4245,11 +4247,11 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>vladimir gutierrez</t>
+          <t>josh hader</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>6.75</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="295">
@@ -4258,11 +4260,11 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>josh hader</t>
+          <t>dl hall</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>3.8</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="296">
@@ -4271,11 +4273,11 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>dl hall</t>
+          <t>seth halvorsen</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>5.02</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="297">
@@ -4284,11 +4286,11 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>seth halvorsen</t>
+          <t>ian hamilton</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>1.46</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="298">
@@ -4297,11 +4299,11 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>ian hamilton</t>
+          <t>garrett hampson</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>3.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -4310,11 +4312,11 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>garrett hampson</t>
+          <t>emerson hancock</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="300">
@@ -4323,11 +4325,11 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>emerson hancock</t>
+          <t>brenan hanifee</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>4.75</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="301">
@@ -4336,11 +4338,11 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>brenan hanifee</t>
+          <t>hogan harris</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>1.74</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="302">
@@ -4349,11 +4351,11 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>hogan harris</t>
+          <t>kyle harrison</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>2.86</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="303">
@@ -4362,11 +4364,11 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>kyle harrison</t>
+          <t>geoff hartlieb</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>4.56</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304">
@@ -4375,11 +4377,11 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>geoff hartlieb</t>
+          <t>grant hartwig</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>9</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="305">
@@ -4388,11 +4390,11 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>grant hartwig</t>
+          <t>hunter harvey</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>6.75</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="306">
@@ -4401,11 +4403,11 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>hunter harvey</t>
+          <t>brent headrick</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>4.44</v>
+        <v>3</v>
       </c>
     </row>
     <row r="307">
@@ -4414,11 +4416,11 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>brent headrick</t>
+          <t>andrew heaney</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>3</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="308">
@@ -4427,11 +4429,11 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>andrew heaney</t>
+          <t>jonathan heasley</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>4.28</v>
+        <v>16.88</v>
       </c>
     </row>
     <row r="309">
@@ -4440,11 +4442,11 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>jonathan heasley</t>
+          <t>austin hedges</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>16.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -4453,7 +4455,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>austin hedges</t>
+          <t>tyler heineman</t>
         </is>
       </c>
       <c r="C310" t="n">
@@ -4466,11 +4468,11 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>tyler heineman</t>
+          <t>ben heller</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>0</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="312">
@@ -4479,11 +4481,11 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>ben heller</t>
+          <t>ryan helsley</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>11.25</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="313">
@@ -4492,11 +4494,11 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>ryan helsley</t>
+          <t>kyle hendricks</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>2.04</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="314">
@@ -4505,11 +4507,11 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>kyle hendricks</t>
+          <t>blair henley</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>5.92</v>
+        <v>135</v>
       </c>
     </row>
     <row r="315">
@@ -4518,11 +4520,11 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>blair henley</t>
+          <t>edgardo henriquez</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>135</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="316">
@@ -4531,11 +4533,11 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>edgardo henriquez</t>
+          <t>ronny henriquez</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>5.4</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="317">
@@ -4544,11 +4546,11 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>ronny henriquez</t>
+          <t>tommy henry</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>3.26</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="318">
@@ -4557,11 +4559,11 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>tommy henry</t>
+          <t>david hensley</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>7.04</v>
+        <v>9</v>
       </c>
     </row>
     <row r="319">
@@ -4570,11 +4572,11 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>david hensley</t>
+          <t>sam hentges</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>9</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="320">
@@ -4583,11 +4585,11 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>sam hentges</t>
+          <t>jimmy herget</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>3.04</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="321">
@@ -4596,11 +4598,11 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>jimmy herget</t>
+          <t>kevin herget</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>4.38</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="322">
@@ -4609,11 +4611,11 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>kevin herget</t>
+          <t>carlos hernández</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>1.59</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="323">
@@ -4622,11 +4624,11 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>carlos hernández</t>
+          <t>daysbel hernández</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>3.3</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="324">
@@ -4635,11 +4637,11 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>daysbel hernández</t>
+          <t>elieser hernández</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>2.21</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="325">
@@ -4648,11 +4650,11 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>elieser hernández</t>
+          <t>enrique hernández</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>6.32</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="326">
@@ -4661,11 +4663,11 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>enrique hernández</t>
+          <t>jonathan hernández</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>4.15</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="327">
@@ -4674,11 +4676,11 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>jonathan hernández</t>
+          <t>jose hernandez</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>5.4</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="328">
@@ -4687,11 +4689,11 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>jose hernandez</t>
+          <t>nick hernandez</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>3.38</v>
+        <v>7.88</v>
       </c>
     </row>
     <row r="329">
@@ -4700,11 +4702,11 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>nick hernandez</t>
+          <t>tim herrin</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>7.88</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="330">
@@ -4713,11 +4715,11 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>tim herrin</t>
+          <t>dj herz</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>1.82</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="331">
@@ -4726,11 +4728,11 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>dj herz</t>
+          <t>aaron hicks</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>4.16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="332">
@@ -4739,11 +4741,11 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>aaron hicks</t>
+          <t>jordan hicks</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>18</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="333">
@@ -4752,11 +4754,11 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>jordan hicks</t>
+          <t>jaden hill</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>4.1</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="334">
@@ -4765,11 +4767,11 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>jaden hill</t>
+          <t>rich hill</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>5.06</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="335">
@@ -4778,11 +4780,11 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>rich hill</t>
+          <t>tim hill</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>4.91</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="336">
@@ -4791,11 +4793,11 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>tim hill</t>
+          <t>sean hjelle</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>3.11</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="337">
@@ -4804,11 +4806,11 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>sean hjelle</t>
+          <t>porter hodge</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>3.9</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="338">
@@ -4817,11 +4819,11 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>porter hodge</t>
+          <t>bryan hoeing</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>1.88</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="339">
@@ -4830,11 +4832,11 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>bryan hoeing</t>
+          <t>jeff hoffman</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>2.56</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="340">
@@ -4843,11 +4845,11 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>jeff hoffman</t>
+          <t>colin holderman</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>2.93</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="341">
@@ -4856,11 +4858,11 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>colin holderman</t>
+          <t>gavin hollowell</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>3.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
@@ -4869,11 +4871,11 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>gavin hollowell</t>
+          <t>grant holman</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>0</v>
+        <v>4.02</v>
       </c>
     </row>
     <row r="343">
@@ -4882,11 +4884,11 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>grant holman</t>
+          <t>clay holmes</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>4.02</v>
+        <v>3</v>
       </c>
     </row>
     <row r="344">
@@ -4895,11 +4897,11 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>clay holmes</t>
+          <t>grant holmes</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>3</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="345">
@@ -4908,11 +4910,11 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>grant holmes</t>
+          <t>tyler holton</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>3.56</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="346">
@@ -4921,11 +4923,11 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>tyler holton</t>
+          <t>brent honeywell jr.</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>2.61</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="347">
@@ -4934,11 +4936,11 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>brent honeywell jr.</t>
+          <t>bailey horn</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>3.88</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="348">
@@ -4947,11 +4949,11 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>bailey horn</t>
+          <t>tanner houck</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>6.5</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="349">
@@ -4960,11 +4962,11 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>tanner houck</t>
+          <t>adrian houser</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>3.12</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="350">
@@ -4973,11 +4975,11 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>adrian houser</t>
+          <t>spencer howard</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>5.84</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="351">
@@ -4986,11 +4988,11 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>spencer howard</t>
+          <t>bryan hudson</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>6.21</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="352">
@@ -4999,11 +5001,11 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>bryan hudson</t>
+          <t>dakota hudson</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>1.73</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="353">
@@ -5012,11 +5014,11 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>dakota hudson</t>
+          <t>daniel hudson</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>6.17</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="354">
@@ -5025,11 +5027,11 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>daniel hudson</t>
+          <t>brandon hughes</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>3.39</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="355">
@@ -5038,11 +5040,11 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>brandon hughes</t>
+          <t>kyle hurt</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>8.15</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="356">
@@ -5051,11 +5053,11 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>kyle hurt</t>
+          <t>brant hurter</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>1.35</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="357">
@@ -5064,11 +5066,11 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>brant hurter</t>
+          <t>raisel iglesias</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>2.32</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="358">
@@ -5077,11 +5079,11 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>raisel iglesias</t>
+          <t>shota imanaga</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>1.95</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="359">
@@ -5090,11 +5092,11 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>shota imanaga</t>
+          <t>jairo iriarte</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>2.91</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="360">
@@ -5103,11 +5105,11 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>jairo iriarte</t>
+          <t>cole irvin</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>1.5</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="361">
@@ -5116,11 +5118,11 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>cole irvin</t>
+          <t>jake irvin</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>5.11</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="362">
@@ -5129,11 +5131,11 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>jake irvin</t>
+          <t>jay jackson</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>4.41</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="363">
@@ -5142,11 +5144,11 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>jay jackson</t>
+          <t>luke jackson</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>7.52</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="364">
@@ -5155,11 +5157,11 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>luke jackson</t>
+          <t>alek jacob</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>5.07</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="365">
@@ -5168,11 +5170,11 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>alek jacob</t>
+          <t>joe jacques</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>2.7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="366">
@@ -5181,11 +5183,11 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>joe jacques</t>
+          <t>kenley jansen</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>9</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="367">
@@ -5194,11 +5196,11 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>kenley jansen</t>
+          <t>bryce jarvis</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>3.29</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="368">
@@ -5207,11 +5209,11 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>bryce jarvis</t>
+          <t>cristian javier</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>3.19</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="369">
@@ -5220,11 +5222,11 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>cristian javier</t>
+          <t>griffin jax</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>3.89</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="370">
@@ -5233,11 +5235,11 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>griffin jax</t>
+          <t>tyler jay</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>2.03</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="371">
@@ -5246,11 +5248,11 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>tyler jay</t>
+          <t>daulton jefferies</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>4.7</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="372">
@@ -5259,11 +5261,11 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>daulton jefferies</t>
+          <t>dany jiménez</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>9.82</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="373">
@@ -5272,11 +5274,11 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>dany jiménez</t>
+          <t>joe jiménez</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>4.91</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="374">
@@ -5285,11 +5287,11 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>joe jiménez</t>
+          <t>jackson jobe</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>2.58</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="375">
@@ -5298,11 +5300,11 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>jackson jobe</t>
+          <t>pierce johnson</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>4.76</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="376">
@@ -5311,11 +5313,11 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>pierce johnson</t>
+          <t>seth johnson</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>3.61</v>
+        <v>34.71</v>
       </c>
     </row>
     <row r="377">
@@ -5324,11 +5326,11 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>seth johnson</t>
+          <t>jared jones</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>34.71</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="378">
@@ -5337,11 +5339,11 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>jared jones</t>
+          <t>ben joyce</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>4.14</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="379">
@@ -5350,11 +5352,11 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>ben joyce</t>
+          <t>jakob junis</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>2.08</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="380">
@@ -5363,11 +5365,11 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>jakob junis</t>
+          <t>janson junk</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>2.69</v>
+        <v>14.63</v>
       </c>
     </row>
     <row r="381">
@@ -5376,11 +5378,11 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>janson junk</t>
+          <t>evan justice</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>14.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -5389,11 +5391,11 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>evan justice</t>
+          <t>tommy kahnle</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="383">
@@ -5402,11 +5404,11 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>tommy kahnle</t>
+          <t>brad keller</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>2.1</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="384">
@@ -5415,11 +5417,11 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>brad keller</t>
+          <t>mitch keller</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>5.44</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="385">
@@ -5428,11 +5430,11 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>mitch keller</t>
+          <t>casey kelly</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>4.25</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="386">
@@ -5441,11 +5443,11 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>casey kelly</t>
+          <t>joe kelly</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>5.06</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="387">
@@ -5454,11 +5456,11 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>joe kelly</t>
+          <t>kevin kelly</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>4.78</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="388">
@@ -5467,11 +5469,11 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>kevin kelly</t>
+          <t>merrill kelly</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>2.67</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="389">
@@ -5480,11 +5482,11 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>merrill kelly</t>
+          <t>michael kelly</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>4.03</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="390">
@@ -5493,11 +5495,11 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>michael kelly</t>
+          <t>zack kelly</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>2.59</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="391">
@@ -5506,11 +5508,11 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>zack kelly</t>
+          <t>orion kerkering</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>3.97</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="392">
@@ -5519,11 +5521,11 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>orion kerkering</t>
+          <t>ray kerr</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>2.3</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="393">
@@ -5532,11 +5534,11 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>ray kerr</t>
+          <t>clayton kershaw</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>5.64</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="394">
@@ -5545,11 +5547,11 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>clayton kershaw</t>
+          <t>grae kessinger</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
@@ -5558,11 +5560,11 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>grae kessinger</t>
+          <t>dallas keuchel</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="396">
@@ -5571,11 +5573,11 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>dallas keuchel</t>
+          <t>yusei kikuchi</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>5.4</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="397">
@@ -5584,11 +5586,11 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>yusei kikuchi</t>
+          <t>caleb kilian</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>4.05</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="398">
@@ -5597,11 +5599,11 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>caleb kilian</t>
+          <t>craig kimbrel</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>4.22</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="399">
@@ -5610,11 +5612,11 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>craig kimbrel</t>
+          <t>isiah kiner-falefa</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>5.33</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="400">
@@ -5623,11 +5625,11 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>isiah kiner-falefa</t>
+          <t>bryan king</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>4.5</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="401">
@@ -5636,11 +5638,11 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>bryan king</t>
+          <t>john king</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>2.33</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="402">
@@ -5649,11 +5651,11 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>john king</t>
+          <t>michael king</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>2.85</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="403">
@@ -5662,11 +5664,11 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>michael king</t>
+          <t>tyler kinley</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>3.01</v>
+        <v>6.19</v>
       </c>
     </row>
     <row r="404">
@@ -5675,11 +5677,11 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>tyler kinley</t>
+          <t>george kirby</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>6.19</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="405">
@@ -5688,11 +5690,11 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>george kirby</t>
+          <t>austin kitchen</t>
         </is>
       </c>
       <c r="C405" t="n">
-        <v>3.53</v>
+        <v>14.14</v>
       </c>
     </row>
     <row r="406">
@@ -5701,11 +5703,11 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>austin kitchen</t>
+          <t>andrew kittredge</t>
         </is>
       </c>
       <c r="C406" t="n">
-        <v>14.14</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="407">
@@ -5714,11 +5716,11 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>andrew kittredge</t>
+          <t>will klein</t>
         </is>
       </c>
       <c r="C407" t="n">
-        <v>2.8</v>
+        <v>11.05</v>
       </c>
     </row>
     <row r="408">
@@ -5727,11 +5729,11 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>will klein</t>
+          <t>adam kloffenstein</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>11.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
@@ -5740,11 +5742,11 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>adam kloffenstein</t>
+          <t>landon knack</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>0</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="410">
@@ -5753,11 +5755,11 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>landon knack</t>
+          <t>andrew knizner</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>4.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
@@ -5766,11 +5768,11 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>andrew knizner</t>
+          <t>matt koch</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="412">
@@ -5779,11 +5781,11 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>matt koch</t>
+          <t>jack kochanowicz</t>
         </is>
       </c>
       <c r="C412" t="n">
-        <v>81</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="413">
@@ -5792,11 +5794,11 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>jack kochanowicz</t>
+          <t>jared koenig</t>
         </is>
       </c>
       <c r="C413" t="n">
-        <v>3.99</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="414">
@@ -5805,11 +5807,11 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>jared koenig</t>
+          <t>stephen kolek</t>
         </is>
       </c>
       <c r="C414" t="n">
-        <v>2.44</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="415">
@@ -5818,11 +5820,11 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>stephen kolek</t>
+          <t>michael kopech</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>5.21</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="416">
@@ -5831,11 +5833,11 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>michael kopech</t>
+          <t>evan kravetz</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
@@ -5844,11 +5846,11 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>evan kravetz</t>
+          <t>dean kremer</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="418">
@@ -5857,11 +5859,11 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>dean kremer</t>
+          <t>zac kristofak</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
@@ -5870,11 +5872,11 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>zac kristofak</t>
+          <t>matt krook</t>
         </is>
       </c>
       <c r="C419" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="420">
@@ -5883,11 +5885,11 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>matt krook</t>
+          <t>chad kuhl</t>
         </is>
       </c>
       <c r="C420" t="n">
-        <v>18</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="421">
@@ -5896,11 +5898,11 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>chad kuhl</t>
+          <t>joel kuhnel</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>5.06</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="422">
@@ -5909,11 +5911,11 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>joel kuhnel</t>
+          <t>joe la sorsa</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>4.5</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="423">
@@ -5922,11 +5924,11 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>joe la sorsa</t>
+          <t>peter lambert</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>4.58</v>
+        <v>5.72</v>
       </c>
     </row>
     <row r="424">
@@ -5935,11 +5937,11 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>peter lambert</t>
+          <t>dinelson lamet</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>5.72</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="425">
@@ -5948,11 +5950,11 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>dinelson lamet</t>
+          <t>alex lange</t>
         </is>
       </c>
       <c r="C425" t="n">
-        <v>2.08</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="426">
@@ -5961,11 +5963,11 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>alex lange</t>
+          <t>jacob latz</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>4.34</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="427">
@@ -5974,11 +5976,11 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>jacob latz</t>
+          <t>derek law</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>3.71</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="428">
@@ -5987,11 +5989,11 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>derek law</t>
+          <t>justin lawrence</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>2.6</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="429">
@@ -6000,11 +6002,11 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>justin lawrence</t>
+          <t>max lazar</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>6.49</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="430">
@@ -6013,11 +6015,11 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>max lazar</t>
+          <t>kyle leahy</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>4.61</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="431">
@@ -6026,11 +6028,11 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>kyle leahy</t>
+          <t>jordan leasure</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>4.07</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="432">
@@ -6039,11 +6041,11 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>jordan leasure</t>
+          <t>josé leclerc</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>6.32</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="433">
@@ -6052,11 +6054,11 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>josé leclerc</t>
+          <t>dylan lee</t>
         </is>
       </c>
       <c r="C433" t="n">
-        <v>4.32</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="434">
@@ -6065,11 +6067,11 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>dylan lee</t>
+          <t>casey legumina</t>
         </is>
       </c>
       <c r="C434" t="n">
-        <v>2.05</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="435">
@@ -6078,11 +6080,11 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>casey legumina</t>
+          <t>brandon leibrandt</t>
         </is>
       </c>
       <c r="C435" t="n">
-        <v>8.68</v>
+        <v>9.949999999999999</v>
       </c>
     </row>
     <row r="436">
@@ -6091,11 +6093,11 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>brandon leibrandt</t>
+          <t>jack leiter</t>
         </is>
       </c>
       <c r="C436" t="n">
-        <v>9.949999999999999</v>
+        <v>8.83</v>
       </c>
     </row>
     <row r="437">
@@ -6104,11 +6106,11 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>jack leiter</t>
+          <t>mark leiter jr.</t>
         </is>
       </c>
       <c r="C437" t="n">
-        <v>8.83</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="438">
@@ -6117,11 +6119,11 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>mark leiter jr.</t>
+          <t>dominic leone</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>4.26</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="439">
@@ -6130,11 +6132,11 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>dominic leone</t>
+          <t>matthew liberatore</t>
         </is>
       </c>
       <c r="C439" t="n">
-        <v>6.63</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="440">
@@ -6143,11 +6145,11 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>matthew liberatore</t>
+          <t>zack littell</t>
         </is>
       </c>
       <c r="C440" t="n">
-        <v>4.4</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="441">
@@ -6156,11 +6158,11 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>zack littell</t>
+          <t>brendon little</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>3.63</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="442">
@@ -6169,11 +6171,11 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>brendon little</t>
+          <t>luke little</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>3.74</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="443">
@@ -6182,11 +6184,11 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>luke little</t>
+          <t>ben lively</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>3.46</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="444">
@@ -6195,11 +6197,11 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>ben lively</t>
+          <t>jonathan loáisiga</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>3.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
@@ -6208,11 +6210,11 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>jonathan loáisiga</t>
+          <t>nick lodolo</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>0</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="446">
@@ -6221,11 +6223,11 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>nick lodolo</t>
+          <t>nick loftin</t>
         </is>
       </c>
       <c r="C446" t="n">
-        <v>4.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
@@ -6234,11 +6236,11 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>nick loftin</t>
+          <t>zach logue</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="448">
@@ -6247,11 +6249,11 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>zach logue</t>
+          <t>sam long</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>18</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="449">
@@ -6260,11 +6262,11 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>sam long</t>
+          <t>jacob lopez</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>3.09</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="450">
@@ -6273,11 +6275,11 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>jacob lopez</t>
+          <t>jorge lópez</t>
         </is>
       </c>
       <c r="C450" t="n">
-        <v>5.23</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="451">
@@ -6286,11 +6288,11 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>jorge lópez</t>
+          <t>pablo lópez</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>2.89</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="452">
@@ -6299,11 +6301,11 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>pablo lópez</t>
+          <t>reynaldo lópez</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>4.08</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="453">
@@ -6312,11 +6314,11 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>reynaldo lópez</t>
+          <t>michael lorenzen</t>
         </is>
       </c>
       <c r="C453" t="n">
-        <v>1.99</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="454">
@@ -6325,11 +6327,11 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>michael lorenzen</t>
+          <t>ryan loutos</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>3.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
@@ -6338,11 +6340,11 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>ryan loutos</t>
+          <t>richard lovelady</t>
         </is>
       </c>
       <c r="C455" t="n">
-        <v>0</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="456">
@@ -6351,11 +6353,11 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>richard lovelady</t>
+          <t>rhett lowder</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>4.46</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="457">
@@ -6364,11 +6366,11 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>rhett lowder</t>
+          <t>easton lucas</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>1.17</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="458">
@@ -6377,11 +6379,11 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>easton lucas</t>
+          <t>joey lucchesi</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>10.8</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="459">
@@ -6390,11 +6392,11 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>joey lucchesi</t>
+          <t>seth lugo</t>
         </is>
       </c>
       <c r="C459" t="n">
-        <v>5.23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="460">
@@ -6403,11 +6405,11 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>seth lugo</t>
+          <t>jesús luzardo</t>
         </is>
       </c>
       <c r="C460" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="461">
@@ -6416,11 +6418,11 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>jesús luzardo</t>
+          <t>jordan lyles</t>
         </is>
       </c>
       <c r="C461" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462">
@@ -6429,11 +6431,11 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>jordan lyles</t>
+          <t>daniel lynch iv</t>
         </is>
       </c>
       <c r="C462" t="n">
-        <v>0</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="463">
@@ -6442,11 +6444,11 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>daniel lynch iv</t>
+          <t>lance lynn</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>3.32</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="464">
@@ -6455,11 +6457,11 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>lance lynn</t>
+          <t>josh maciejewski</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>3.84</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="465">
@@ -6468,11 +6470,11 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>josh maciejewski</t>
+          <t>ty madden</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>2.57</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="466">
@@ -6481,11 +6483,11 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>ty madden</t>
+          <t>kenta maeda</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>4.94</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="467">
@@ -6494,11 +6496,11 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>kenta maeda</t>
+          <t>tyler mahle</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>6.09</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="468">
@@ -6507,11 +6509,11 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>tyler mahle</t>
+          <t>luke maile</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>4.97</v>
+        <v>14.73</v>
       </c>
     </row>
     <row r="469">
@@ -6520,11 +6522,11 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>luke maile</t>
+          <t>anthony maldonado</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>14.73</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="470">
@@ -6533,11 +6535,11 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>anthony maldonado</t>
+          <t>sean manaea</t>
         </is>
       </c>
       <c r="C470" t="n">
-        <v>5.68</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="471">
@@ -6546,11 +6548,11 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>sean manaea</t>
+          <t>matt manning</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>3.59</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="472">
@@ -6559,11 +6561,11 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>matt manning</t>
+          <t>alek manoah</t>
         </is>
       </c>
       <c r="C472" t="n">
-        <v>4.88</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="473">
@@ -6572,11 +6574,11 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>alek manoah</t>
+          <t>joe mantiply</t>
         </is>
       </c>
       <c r="C473" t="n">
-        <v>3.7</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="474">
@@ -6585,11 +6587,11 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>joe mantiply</t>
+          <t>ron marinaccio</t>
         </is>
       </c>
       <c r="C474" t="n">
-        <v>3.92</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="475">
@@ -6598,11 +6600,11 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>ron marinaccio</t>
+          <t>germán márquez</t>
         </is>
       </c>
       <c r="C475" t="n">
-        <v>3.86</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="476">
@@ -6611,11 +6613,11 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>germán márquez</t>
+          <t>alec marsh</t>
         </is>
       </c>
       <c r="C476" t="n">
-        <v>6.75</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="477">
@@ -6624,11 +6626,11 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>alec marsh</t>
+          <t>josé marte</t>
         </is>
       </c>
       <c r="C477" t="n">
-        <v>4.53</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="478">
@@ -6637,11 +6639,11 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>josé marte</t>
+          <t>yunior marte</t>
         </is>
       </c>
       <c r="C478" t="n">
-        <v>2.33</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="479">
@@ -6650,11 +6652,11 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>yunior marte</t>
+          <t>chris martin</t>
         </is>
       </c>
       <c r="C479" t="n">
-        <v>6.92</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="480">
@@ -6663,11 +6665,11 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>chris martin</t>
+          <t>davis martin</t>
         </is>
       </c>
       <c r="C480" t="n">
-        <v>3.45</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="481">
@@ -6676,11 +6678,11 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>davis martin</t>
+          <t>justin martinez</t>
         </is>
       </c>
       <c r="C481" t="n">
-        <v>4.32</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="482">
@@ -6689,11 +6691,11 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>justin martinez</t>
+          <t>nick martinez</t>
         </is>
       </c>
       <c r="C482" t="n">
-        <v>2.48</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="483">
@@ -6702,11 +6704,11 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>nick martinez</t>
+          <t>seth martinez</t>
         </is>
       </c>
       <c r="C483" t="n">
-        <v>3.1</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="484">
@@ -6715,11 +6717,11 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>seth martinez</t>
+          <t>phil maton</t>
         </is>
       </c>
       <c r="C484" t="n">
-        <v>3.59</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="485">
@@ -6728,11 +6730,11 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>phil maton</t>
+          <t>yuki matsui</t>
         </is>
       </c>
       <c r="C485" t="n">
-        <v>4.09</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="486">
@@ -6741,11 +6743,11 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>yuki matsui</t>
+          <t>zebby matthews</t>
         </is>
       </c>
       <c r="C486" t="n">
-        <v>3.68</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="487">
@@ -6754,11 +6756,11 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>zebby matthews</t>
+          <t>isaac mattson</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>6.69</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="488">
@@ -6767,11 +6769,11 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>isaac mattson</t>
+          <t>steven matz</t>
         </is>
       </c>
       <c r="C488" t="n">
-        <v>5.06</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="489">
@@ -6780,11 +6782,11 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>steven matz</t>
+          <t>tyler matzek</t>
         </is>
       </c>
       <c r="C489" t="n">
-        <v>5.08</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="490">
@@ -6793,11 +6795,11 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>tyler matzek</t>
+          <t>tim mayza</t>
         </is>
       </c>
       <c r="C490" t="n">
-        <v>9.9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="491">
@@ -6806,11 +6808,11 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>tim mayza</t>
+          <t>adam mazur</t>
         </is>
       </c>
       <c r="C491" t="n">
-        <v>6</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="492">
@@ -6819,11 +6821,11 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>adam mazur</t>
+          <t>james mcarthur</t>
         </is>
       </c>
       <c r="C492" t="n">
-        <v>7.49</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="493">
@@ -6832,11 +6834,11 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>james mcarthur</t>
+          <t>james mccann</t>
         </is>
       </c>
       <c r="C493" t="n">
-        <v>4.92</v>
+        <v>18</v>
       </c>
     </row>
     <row r="494">
@@ -6845,11 +6847,11 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>james mccann</t>
+          <t>darren mccaughan</t>
         </is>
       </c>
       <c r="C494" t="n">
-        <v>18</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="495">
@@ -6858,11 +6860,11 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>darren mccaughan</t>
+          <t>chayce mcdermott</t>
         </is>
       </c>
       <c r="C495" t="n">
-        <v>6.21</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="496">
@@ -6871,11 +6873,11 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>chayce mcdermott</t>
+          <t>trevor mcdonald</t>
         </is>
       </c>
       <c r="C496" t="n">
-        <v>6.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
@@ -6884,11 +6886,11 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>trevor mcdonald</t>
+          <t>t.j. mcfarland</t>
         </is>
       </c>
       <c r="C497" t="n">
-        <v>0</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="498">
@@ -6897,11 +6899,11 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>t.j. mcfarland</t>
+          <t>scott mcgough</t>
         </is>
       </c>
       <c r="C498" t="n">
-        <v>3.81</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="499">
@@ -6910,11 +6912,11 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>scott mcgough</t>
+          <t>michael mcgreevy</t>
         </is>
       </c>
       <c r="C499" t="n">
-        <v>7.44</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="500">
@@ -6923,11 +6925,11 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>michael mcgreevy</t>
+          <t>triston mckenzie</t>
         </is>
       </c>
       <c r="C500" t="n">
-        <v>1.96</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="501">
@@ -6936,11 +6938,11 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>triston mckenzie</t>
+          <t>zach mckinstry</t>
         </is>
       </c>
       <c r="C501" t="n">
-        <v>5.11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="502">
@@ -6949,11 +6951,11 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>zach mckinstry</t>
+          <t>john mcmillon</t>
         </is>
       </c>
       <c r="C502" t="n">
-        <v>9</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="503">
@@ -6962,11 +6964,11 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>john mcmillon</t>
+          <t>john means</t>
         </is>
       </c>
       <c r="C503" t="n">
-        <v>1.5</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="504">
@@ -6975,11 +6977,11 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>john means</t>
+          <t>nick mears</t>
         </is>
       </c>
       <c r="C504" t="n">
-        <v>2.61</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="505">
@@ -6988,11 +6990,11 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>nick mears</t>
+          <t>victor mederos</t>
         </is>
       </c>
       <c r="C505" t="n">
-        <v>5.7</v>
+        <v>11.81</v>
       </c>
     </row>
     <row r="506">
@@ -7001,11 +7003,11 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>victor mederos</t>
+          <t>luis medina</t>
         </is>
       </c>
       <c r="C506" t="n">
-        <v>11.81</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="507">
@@ -7014,11 +7016,11 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>luis medina</t>
+          <t>james meeker</t>
         </is>
       </c>
       <c r="C507" t="n">
-        <v>5.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
@@ -7027,11 +7029,11 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>james meeker</t>
+          <t>trevor megill</t>
         </is>
       </c>
       <c r="C508" t="n">
-        <v>0</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="509">
@@ -7040,11 +7042,11 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>trevor megill</t>
+          <t>tylor megill</t>
         </is>
       </c>
       <c r="C509" t="n">
-        <v>2.59</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="510">
@@ -7053,11 +7055,11 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>tylor megill</t>
+          <t>cristian mena</t>
         </is>
       </c>
       <c r="C510" t="n">
-        <v>4.37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="511">
@@ -7066,11 +7068,11 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>cristian mena</t>
+          <t>danny mendick</t>
         </is>
       </c>
       <c r="C511" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512">
@@ -7079,11 +7081,11 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>danny mendick</t>
+          <t>michael mercado</t>
         </is>
       </c>
       <c r="C512" t="n">
-        <v>0</v>
+        <v>11.08</v>
       </c>
     </row>
     <row r="513">
@@ -7092,11 +7094,11 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>michael mercado</t>
+          <t>julian merryweather</t>
         </is>
       </c>
       <c r="C513" t="n">
-        <v>11.08</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="514">
@@ -7105,11 +7107,11 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>julian merryweather</t>
+          <t>matt mervis</t>
         </is>
       </c>
       <c r="C514" t="n">
-        <v>6.6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="515">
@@ -7118,11 +7120,11 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>matt mervis</t>
+          <t>max meyer</t>
         </is>
       </c>
       <c r="C515" t="n">
-        <v>81</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="516">
@@ -7131,11 +7133,11 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>max meyer</t>
+          <t>miles mikolas</t>
         </is>
       </c>
       <c r="C516" t="n">
-        <v>5.68</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="517">
@@ -7144,11 +7146,11 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>miles mikolas</t>
+          <t>wade miley</t>
         </is>
       </c>
       <c r="C517" t="n">
-        <v>5.35</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="518">
@@ -7157,11 +7159,11 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>wade miley</t>
+          <t>bobby miller</t>
         </is>
       </c>
       <c r="C518" t="n">
-        <v>6.43</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="519">
@@ -7170,11 +7172,11 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>bobby miller</t>
+          <t>bryce miller</t>
         </is>
       </c>
       <c r="C519" t="n">
-        <v>8.52</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="520">
@@ -7183,11 +7185,11 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>bryce miller</t>
+          <t>erik miller</t>
         </is>
       </c>
       <c r="C520" t="n">
-        <v>2.94</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="521">
@@ -7196,11 +7198,11 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>erik miller</t>
+          <t>mason miller</t>
         </is>
       </c>
       <c r="C521" t="n">
-        <v>3.88</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="522">
@@ -7209,11 +7211,11 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>mason miller</t>
+          <t>owen miller</t>
         </is>
       </c>
       <c r="C522" t="n">
-        <v>2.49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="523">
@@ -7222,11 +7224,11 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>owen miller</t>
+          <t>ryan miller</t>
         </is>
       </c>
       <c r="C523" t="n">
-        <v>18</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="524">
@@ -7235,11 +7237,11 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>ryan miller</t>
+          <t>shelby miller</t>
         </is>
       </c>
       <c r="C524" t="n">
-        <v>4.15</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="525">
@@ -7248,11 +7250,11 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>shelby miller</t>
+          <t>tyson miller</t>
         </is>
       </c>
       <c r="C525" t="n">
-        <v>4.53</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="526">
@@ -7261,11 +7263,11 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>tyson miller</t>
+          <t>hoby milner</t>
         </is>
       </c>
       <c r="C526" t="n">
-        <v>2.32</v>
+        <v>4.73</v>
       </c>
     </row>
     <row r="527">
@@ -7274,11 +7276,11 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>hoby milner</t>
+          <t>a.j. minter</t>
         </is>
       </c>
       <c r="C527" t="n">
-        <v>4.73</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="528">
@@ -7287,11 +7289,11 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>a.j. minter</t>
+          <t>anthony misiewicz</t>
         </is>
       </c>
       <c r="C528" t="n">
-        <v>2.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
@@ -7300,11 +7302,11 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>anthony misiewicz</t>
+          <t>casey mize</t>
         </is>
       </c>
       <c r="C529" t="n">
-        <v>0</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="530">
@@ -7313,11 +7315,11 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>casey mize</t>
+          <t>carmen mlodzinski</t>
         </is>
       </c>
       <c r="C530" t="n">
-        <v>4.49</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="531">
@@ -7326,11 +7328,11 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>carmen mlodzinski</t>
+          <t>anthony molina</t>
         </is>
       </c>
       <c r="C531" t="n">
-        <v>3.38</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="532">
@@ -7339,11 +7341,11 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>anthony molina</t>
+          <t>sam moll</t>
         </is>
       </c>
       <c r="C532" t="n">
-        <v>6.79</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="533">
@@ -7352,11 +7354,11 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>sam moll</t>
+          <t>frankie montas</t>
         </is>
       </c>
       <c r="C533" t="n">
-        <v>3.35</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="534">
@@ -7365,11 +7367,11 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>frankie montas</t>
+          <t>keider montero</t>
         </is>
       </c>
       <c r="C534" t="n">
-        <v>4.78</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="535">
@@ -7378,11 +7380,11 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>keider montero</t>
+          <t>rafael montero</t>
         </is>
       </c>
       <c r="C535" t="n">
-        <v>4.62</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="536">
@@ -7391,11 +7393,11 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>rafael montero</t>
+          <t>jordan montgomery</t>
         </is>
       </c>
       <c r="C536" t="n">
-        <v>4.7</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="537">
@@ -7404,11 +7406,11 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>jordan montgomery</t>
+          <t>mason montgomery</t>
         </is>
       </c>
       <c r="C537" t="n">
-        <v>6.23</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="538">
@@ -7417,11 +7419,11 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>mason montgomery</t>
+          <t>matt moore</t>
         </is>
       </c>
       <c r="C538" t="n">
-        <v>1.86</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="539">
@@ -7430,11 +7432,11 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>matt moore</t>
+          <t>adrián morejón</t>
         </is>
       </c>
       <c r="C539" t="n">
-        <v>5.03</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="540">
@@ -7443,11 +7445,11 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>adrián morejón</t>
+          <t>eli morgan</t>
         </is>
       </c>
       <c r="C540" t="n">
-        <v>2.86</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="541">
@@ -7456,11 +7458,11 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>eli morgan</t>
+          <t>charlie morton</t>
         </is>
       </c>
       <c r="C541" t="n">
-        <v>1.96</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="542">
@@ -7469,11 +7471,11 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>charlie morton</t>
+          <t>kyle muller</t>
         </is>
       </c>
       <c r="C542" t="n">
-        <v>4.19</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="543">
@@ -7482,11 +7484,11 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>kyle muller</t>
+          <t>andrés muñoz</t>
         </is>
       </c>
       <c r="C543" t="n">
-        <v>4.01</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="544">
@@ -7495,11 +7497,11 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>andrés muñoz</t>
+          <t>roddery muñoz</t>
         </is>
       </c>
       <c r="C544" t="n">
-        <v>2.12</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="545">
@@ -7508,11 +7510,11 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>roddery muñoz</t>
+          <t>joe musgrove</t>
         </is>
       </c>
       <c r="C545" t="n">
-        <v>6.53</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="546">
@@ -7521,11 +7523,11 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>joe musgrove</t>
+          <t>parker mushinski</t>
         </is>
       </c>
       <c r="C546" t="n">
-        <v>3.83</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="547">
@@ -7534,11 +7536,11 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>parker mushinski</t>
+          <t>tobias myers</t>
         </is>
       </c>
       <c r="C547" t="n">
-        <v>6.55</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="548">
@@ -7547,11 +7549,11 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>tobias myers</t>
+          <t>tommy nance</t>
         </is>
       </c>
       <c r="C548" t="n">
-        <v>2.9</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="549">
@@ -7560,11 +7562,11 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>tommy nance</t>
+          <t>andrew nardi</t>
         </is>
       </c>
       <c r="C549" t="n">
-        <v>4.09</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="550">
@@ -7573,11 +7575,11 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>andrew nardi</t>
+          <t>nick nastrini</t>
         </is>
       </c>
       <c r="C550" t="n">
-        <v>5.07</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="551">
@@ -7586,11 +7588,11 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>nick nastrini</t>
+          <t>jack neely</t>
         </is>
       </c>
       <c r="C551" t="n">
-        <v>7.07</v>
+        <v>9</v>
       </c>
     </row>
     <row r="552">
@@ -7599,11 +7601,11 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>jack neely</t>
+          <t>kyle nelson</t>
         </is>
       </c>
       <c r="C552" t="n">
-        <v>9</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="553">
@@ -7612,11 +7614,11 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>kyle nelson</t>
+          <t>nick nelson</t>
         </is>
       </c>
       <c r="C553" t="n">
-        <v>4.22</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="554">
@@ -7625,11 +7627,11 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>nick nelson</t>
+          <t>ryne nelson</t>
         </is>
       </c>
       <c r="C554" t="n">
-        <v>5.06</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="555">
@@ -7638,11 +7640,11 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>ryne nelson</t>
+          <t>héctor neris</t>
         </is>
       </c>
       <c r="C555" t="n">
-        <v>4.24</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="556">
@@ -7651,11 +7653,11 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>héctor neris</t>
+          <t>sean newcomb</t>
         </is>
       </c>
       <c r="C556" t="n">
-        <v>4.05</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="557">
@@ -7664,11 +7666,11 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>sean newcomb</t>
+          <t>kyle nicolas</t>
         </is>
       </c>
       <c r="C557" t="n">
-        <v>6.3</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="558">
@@ -7677,11 +7679,11 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>kyle nicolas</t>
+          <t>vinny nittoli</t>
         </is>
       </c>
       <c r="C558" t="n">
-        <v>3.95</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="559">
@@ -7690,11 +7692,11 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>vinny nittoli</t>
+          <t>aaron nola</t>
         </is>
       </c>
       <c r="C559" t="n">
-        <v>1.5</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="560">
@@ -7703,11 +7705,11 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>aaron nola</t>
+          <t>dedniel núñez</t>
         </is>
       </c>
       <c r="C560" t="n">
-        <v>3.66</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="561">
@@ -7716,11 +7718,11 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>dedniel núñez</t>
+          <t>riley o'brien</t>
         </is>
       </c>
       <c r="C561" t="n">
-        <v>2.31</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="562">
@@ -7729,11 +7731,11 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>riley o'brien</t>
+          <t>jack o'loughlin</t>
         </is>
       </c>
       <c r="C562" t="n">
-        <v>11.25</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="563">
@@ -7742,11 +7744,11 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>jack o'loughlin</t>
+          <t>bailey ober</t>
         </is>
       </c>
       <c r="C563" t="n">
-        <v>4.66</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="564">
@@ -7755,11 +7757,11 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>bailey ober</t>
+          <t>steven okert</t>
         </is>
       </c>
       <c r="C564" t="n">
-        <v>3.98</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="565">
@@ -7768,11 +7770,11 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>steven okert</t>
+          <t>adam oller</t>
         </is>
       </c>
       <c r="C565" t="n">
-        <v>5.09</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="566">
@@ -7781,11 +7783,11 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>adam oller</t>
+          <t>reese olson</t>
         </is>
       </c>
       <c r="C566" t="n">
-        <v>5.31</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="567">
@@ -7794,11 +7796,11 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>reese olson</t>
+          <t>kaleb ort</t>
         </is>
       </c>
       <c r="C567" t="n">
-        <v>3.41</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="568">
@@ -7807,11 +7809,11 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>kaleb ort</t>
+          <t>luis ortiz</t>
         </is>
       </c>
       <c r="C568" t="n">
-        <v>2.55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="569">
@@ -7824,7 +7826,7 @@
         </is>
       </c>
       <c r="C569" t="n">
-        <v>27</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="570">
@@ -7833,11 +7835,11 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>luis ortiz</t>
+          <t>eric orze</t>
         </is>
       </c>
       <c r="C570" t="n">
-        <v>3.32</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="571">
@@ -7846,11 +7848,11 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>eric orze</t>
+          <t>michel otañez</t>
         </is>
       </c>
       <c r="C571" t="n">
-        <v>21.6</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="572">
@@ -7859,11 +7861,11 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>michel otañez</t>
+          <t>adam ottavino</t>
         </is>
       </c>
       <c r="C572" t="n">
-        <v>3.44</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="573">
@@ -7872,11 +7874,11 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>adam ottavino</t>
+          <t>chris paddack</t>
         </is>
       </c>
       <c r="C573" t="n">
-        <v>4.34</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="574">
@@ -7885,11 +7887,11 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>chris paddack</t>
+          <t>emilio pagán</t>
         </is>
       </c>
       <c r="C574" t="n">
-        <v>4.99</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="575">
@@ -7898,11 +7900,11 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>emilio pagán</t>
+          <t>daniel palencia</t>
         </is>
       </c>
       <c r="C575" t="n">
-        <v>4.5</v>
+        <v>6.14</v>
       </c>
     </row>
     <row r="576">
@@ -7911,11 +7913,11 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>daniel palencia</t>
+          <t>andre pallante</t>
         </is>
       </c>
       <c r="C576" t="n">
-        <v>6.14</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="577">
@@ -7924,11 +7926,11 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>andre pallante</t>
+          <t>enoli paredes</t>
         </is>
       </c>
       <c r="C577" t="n">
-        <v>3.78</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="578">
@@ -7937,11 +7939,11 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>enoli paredes</t>
+          <t>mitchell parker</t>
         </is>
       </c>
       <c r="C578" t="n">
-        <v>1.66</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="579">
@@ -7950,11 +7952,11 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>mitchell parker</t>
+          <t>wes parsons</t>
         </is>
       </c>
       <c r="C579" t="n">
-        <v>4.29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="580">
@@ -7963,11 +7965,11 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>wes parsons</t>
+          <t>james paxton</t>
         </is>
       </c>
       <c r="C580" t="n">
-        <v>6</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="581">
@@ -7976,11 +7978,11 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>james paxton</t>
+          <t>joel payamps</t>
         </is>
       </c>
       <c r="C581" t="n">
-        <v>4.4</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="582">
@@ -7989,11 +7991,11 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>joel payamps</t>
+          <t>nate pearson</t>
         </is>
       </c>
       <c r="C582" t="n">
-        <v>3.41</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="583">
@@ -8002,11 +8004,11 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>nate pearson</t>
+          <t>elvis peguero</t>
         </is>
       </c>
       <c r="C583" t="n">
-        <v>4.48</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="584">
@@ -8015,11 +8017,11 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>elvis peguero</t>
+          <t>walter pennington</t>
         </is>
       </c>
       <c r="C584" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="585">
@@ -8028,11 +8030,11 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>walter pennington</t>
+          <t>zach penrod</t>
         </is>
       </c>
       <c r="C585" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="586">
@@ -8041,11 +8043,11 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>zach penrod</t>
+          <t>ryan pepiot</t>
         </is>
       </c>
       <c r="C586" t="n">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="587">
@@ -8054,11 +8056,11 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>ryan pepiot</t>
+          <t>freddy peralta</t>
         </is>
       </c>
       <c r="C587" t="n">
-        <v>3.6</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="588">
@@ -8067,11 +8069,11 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>freddy peralta</t>
+          <t>luis peralta</t>
         </is>
       </c>
       <c r="C588" t="n">
-        <v>3.73</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="589">
@@ -8080,11 +8082,11 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>luis peralta</t>
+          <t>sammy peralta</t>
         </is>
       </c>
       <c r="C589" t="n">
-        <v>0.73</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="590">
@@ -8093,11 +8095,11 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>sammy peralta</t>
+          <t>wandy peralta</t>
         </is>
       </c>
       <c r="C590" t="n">
-        <v>4.8</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="591">
@@ -8106,11 +8108,11 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>wandy peralta</t>
+          <t>jhonny pereda</t>
         </is>
       </c>
       <c r="C591" t="n">
-        <v>4.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592">
@@ -8119,11 +8121,11 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>jhonny pereda</t>
+          <t>cionel pérez</t>
         </is>
       </c>
       <c r="C592" t="n">
-        <v>0</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="593">
@@ -8132,11 +8134,11 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>cionel pérez</t>
+          <t>martín pérez</t>
         </is>
       </c>
       <c r="C593" t="n">
-        <v>4.67</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="594">
@@ -8145,11 +8147,11 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>martín pérez</t>
+          <t>michael petersen</t>
         </is>
       </c>
       <c r="C594" t="n">
-        <v>4.53</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="595">
@@ -8158,11 +8160,11 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>michael petersen</t>
+          <t>david peterson</t>
         </is>
       </c>
       <c r="C595" t="n">
-        <v>5.95</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="596">
@@ -8171,11 +8173,11 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>david peterson</t>
+          <t>brandon pfaadt</t>
         </is>
       </c>
       <c r="C596" t="n">
-        <v>2.84</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="597">
@@ -8184,11 +8186,11 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>brandon pfaadt</t>
+          <t>evan phillips</t>
         </is>
       </c>
       <c r="C597" t="n">
-        <v>4.71</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="598">
@@ -8197,11 +8199,11 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>evan phillips</t>
+          <t>tyler phillips</t>
         </is>
       </c>
       <c r="C598" t="n">
-        <v>3.23</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="599">
@@ -8210,11 +8212,11 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>tyler phillips</t>
+          <t>riley pint</t>
         </is>
       </c>
       <c r="C599" t="n">
-        <v>6.87</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="600">
@@ -8223,11 +8225,11 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>riley pint</t>
+          <t>ricardo pinto</t>
         </is>
       </c>
       <c r="C600" t="n">
-        <v>21.6</v>
+        <v>10.97</v>
       </c>
     </row>
     <row r="601">
@@ -8236,11 +8238,11 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>ricardo pinto</t>
+          <t>nick pivetta</t>
         </is>
       </c>
       <c r="C601" t="n">
-        <v>10.97</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="602">
@@ -8249,11 +8251,11 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>nick pivetta</t>
+          <t>zach plesac</t>
         </is>
       </c>
       <c r="C602" t="n">
-        <v>4.19</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="603">
@@ -8262,11 +8264,11 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>zach plesac</t>
+          <t>colin poche</t>
         </is>
       </c>
       <c r="C603" t="n">
-        <v>8.25</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="604">
@@ -8275,11 +8277,11 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>colin poche</t>
+          <t>zach pop</t>
         </is>
       </c>
       <c r="C604" t="n">
-        <v>3.86</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="605">
@@ -8288,11 +8290,11 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>zach pop</t>
+          <t>cody poteet</t>
         </is>
       </c>
       <c r="C605" t="n">
-        <v>5.63</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="606">
@@ -8301,11 +8303,11 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>cody poteet</t>
+          <t>cade povich</t>
         </is>
       </c>
       <c r="C606" t="n">
-        <v>2.22</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="607">
@@ -8314,11 +8316,11 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>cade povich</t>
+          <t>nick pratto</t>
         </is>
       </c>
       <c r="C607" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608">
@@ -8327,11 +8329,11 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>nick pratto</t>
+          <t>ryan pressly</t>
         </is>
       </c>
       <c r="C608" t="n">
-        <v>0</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="609">
@@ -8340,11 +8342,11 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>ryan pressly</t>
+          <t>quinn priester</t>
         </is>
       </c>
       <c r="C609" t="n">
-        <v>3.92</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="610">
@@ -8353,11 +8355,11 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>quinn priester</t>
+          <t>austin pruitt</t>
         </is>
       </c>
       <c r="C610" t="n">
-        <v>4.71</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="611">
@@ -8366,11 +8368,11 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>austin pruitt</t>
+          <t>a.j. puk</t>
         </is>
       </c>
       <c r="C611" t="n">
-        <v>12.46</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="612">
@@ -8379,11 +8381,11 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>a.j. puk</t>
+          <t>cal quantrill</t>
         </is>
       </c>
       <c r="C612" t="n">
-        <v>3.15</v>
+        <v>4.98</v>
       </c>
     </row>
     <row r="613">
@@ -8392,11 +8394,11 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>cal quantrill</t>
+          <t>josé quijada</t>
         </is>
       </c>
       <c r="C613" t="n">
-        <v>4.98</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="614">
@@ -8405,11 +8407,11 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>josé quijada</t>
+          <t>jose quintana</t>
         </is>
       </c>
       <c r="C614" t="n">
-        <v>3.26</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="615">
@@ -8418,11 +8420,11 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>jose quintana</t>
+          <t>cole ragans</t>
         </is>
       </c>
       <c r="C615" t="n">
-        <v>3.7</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="616">
@@ -8431,11 +8433,11 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>cole ragans</t>
+          <t>tanner rainey</t>
         </is>
       </c>
       <c r="C616" t="n">
-        <v>3.03</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="617">
@@ -8444,11 +8446,11 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>tanner rainey</t>
+          <t>brooks raley</t>
         </is>
       </c>
       <c r="C617" t="n">
-        <v>4.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618">
@@ -8457,11 +8459,11 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>brooks raley</t>
+          <t>emmanuel ramirez</t>
         </is>
       </c>
       <c r="C618" t="n">
-        <v>0</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="619">
@@ -8470,11 +8472,11 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>emmanuel ramirez</t>
+          <t>erasmo ramírez</t>
         </is>
       </c>
       <c r="C619" t="n">
-        <v>6.97</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="620">
@@ -8483,11 +8485,11 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>erasmo ramírez</t>
+          <t>nick ramirez</t>
         </is>
       </c>
       <c r="C620" t="n">
-        <v>4.35</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="621">
@@ -8496,11 +8498,11 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>nick ramirez</t>
+          <t>yohan ramírez</t>
         </is>
       </c>
       <c r="C621" t="n">
-        <v>6.08</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="622">
@@ -8509,11 +8511,11 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>yohan ramírez</t>
+          <t>drew rasmussen</t>
         </is>
       </c>
       <c r="C622" t="n">
-        <v>6.2</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="623">
@@ -8522,11 +8524,11 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>drew rasmussen</t>
+          <t>robbie ray</t>
         </is>
       </c>
       <c r="C623" t="n">
-        <v>2.83</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="624">
@@ -8535,11 +8537,11 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>robbie ray</t>
+          <t>colin rea</t>
         </is>
       </c>
       <c r="C624" t="n">
-        <v>4.7</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="625">
@@ -8548,11 +8550,11 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>colin rea</t>
+          <t>sean reid-foley</t>
         </is>
       </c>
       <c r="C625" t="n">
-        <v>4.29</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="626">
@@ -8561,11 +8563,11 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>sean reid-foley</t>
+          <t>gerardo reyes</t>
         </is>
       </c>
       <c r="C626" t="n">
-        <v>1.66</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="627">
@@ -8574,11 +8576,11 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>gerardo reyes</t>
+          <t>pablo reyes</t>
         </is>
       </c>
       <c r="C627" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628">
@@ -8587,11 +8589,11 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>pablo reyes</t>
+          <t>sean reynolds</t>
         </is>
       </c>
       <c r="C628" t="n">
-        <v>0</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="629">
@@ -8600,11 +8602,11 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>sean reynolds</t>
+          <t>orlando ribalta</t>
         </is>
       </c>
       <c r="C629" t="n">
-        <v>0.82</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="630">
@@ -8613,11 +8615,11 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>orlando ribalta</t>
+          <t>trevor richards</t>
         </is>
       </c>
       <c r="C630" t="n">
-        <v>13.5</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="631">
@@ -8626,11 +8628,11 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>trevor richards</t>
+          <t>lyon richardson</t>
         </is>
       </c>
       <c r="C631" t="n">
-        <v>4.55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="632">
@@ -8639,11 +8641,11 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>lyon richardson</t>
+          <t>leo rivas</t>
         </is>
       </c>
       <c r="C632" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633">
@@ -8652,11 +8654,11 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>leo rivas</t>
+          <t>emmanuel rivera</t>
         </is>
       </c>
       <c r="C633" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="634">
@@ -8665,11 +8667,11 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>emmanuel rivera</t>
+          <t>daniel robert</t>
         </is>
       </c>
       <c r="C634" t="n">
-        <v>9</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="635">
@@ -8678,11 +8680,11 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>daniel robert</t>
+          <t>ethan roberts</t>
         </is>
       </c>
       <c r="C635" t="n">
-        <v>3.18</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="636">
@@ -8691,11 +8693,11 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>ethan roberts</t>
+          <t>david robertson</t>
         </is>
       </c>
       <c r="C636" t="n">
-        <v>3.71</v>
+        <v>3</v>
       </c>
     </row>
     <row r="637">
@@ -8704,11 +8706,11 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>david robertson</t>
+          <t>nick robertson</t>
         </is>
       </c>
       <c r="C637" t="n">
-        <v>3</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="638">
@@ -8717,11 +8719,11 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>nick robertson</t>
+          <t>kumar rocker</t>
         </is>
       </c>
       <c r="C638" t="n">
-        <v>4.05</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="639">
@@ -8730,11 +8732,11 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>kumar rocker</t>
+          <t>carlos rodón</t>
         </is>
       </c>
       <c r="C639" t="n">
-        <v>3.86</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="640">
@@ -8743,11 +8745,11 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>carlos rodón</t>
+          <t>carlos rodriguez</t>
         </is>
       </c>
       <c r="C640" t="n">
-        <v>4.11</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="641">
@@ -8756,11 +8758,11 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>carlos rodriguez</t>
+          <t>eduardo rodríguez</t>
         </is>
       </c>
       <c r="C641" t="n">
-        <v>7.3</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="642">
@@ -8769,11 +8771,11 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>eduardo rodríguez</t>
+          <t>grayson rodriguez</t>
         </is>
       </c>
       <c r="C642" t="n">
-        <v>5.04</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="643">
@@ -8782,11 +8784,11 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>grayson rodriguez</t>
+          <t>joely rodríguez</t>
         </is>
       </c>
       <c r="C643" t="n">
-        <v>3.86</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="644">
@@ -8795,11 +8797,11 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>joely rodríguez</t>
+          <t>manuel rodríguez</t>
         </is>
       </c>
       <c r="C644" t="n">
-        <v>5.93</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="645">
@@ -8808,11 +8810,11 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>manuel rodríguez</t>
+          <t>randy rodríguez</t>
         </is>
       </c>
       <c r="C645" t="n">
-        <v>2.15</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="646">
@@ -8821,11 +8823,11 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>randy rodríguez</t>
+          <t>yariel rodríguez</t>
         </is>
       </c>
       <c r="C646" t="n">
-        <v>4.3</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="647">
@@ -8834,11 +8836,11 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>yariel rodríguez</t>
+          <t>yerry rodríguez</t>
         </is>
       </c>
       <c r="C647" t="n">
-        <v>4.47</v>
+        <v>8.720000000000001</v>
       </c>
     </row>
     <row r="648">
@@ -8847,11 +8849,11 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>yerry rodríguez</t>
+          <t>josh rogers</t>
         </is>
       </c>
       <c r="C648" t="n">
-        <v>8.720000000000001</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="649">
@@ -8860,11 +8862,11 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>josh rogers</t>
+          <t>taylor rogers</t>
         </is>
       </c>
       <c r="C649" t="n">
-        <v>6.55</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="650">
@@ -8873,11 +8875,11 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>taylor rogers</t>
+          <t>trevor rogers</t>
         </is>
       </c>
       <c r="C650" t="n">
-        <v>2.4</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="651">
@@ -8886,11 +8888,11 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>trevor rogers</t>
+          <t>tyler rogers</t>
         </is>
       </c>
       <c r="C651" t="n">
-        <v>4.92</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="652">
@@ -8899,11 +8901,11 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>tyler rogers</t>
+          <t>josh rojas</t>
         </is>
       </c>
       <c r="C652" t="n">
-        <v>2.82</v>
+        <v>9</v>
       </c>
     </row>
     <row r="653">
@@ -8912,11 +8914,11 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>josh rojas</t>
+          <t>miguel rojas</t>
         </is>
       </c>
       <c r="C653" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654">
@@ -8925,11 +8927,11 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>miguel rojas</t>
+          <t>jordan romano</t>
         </is>
       </c>
       <c r="C654" t="n">
-        <v>0</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="655">
@@ -8938,11 +8940,11 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>jordan romano</t>
+          <t>jojo romero</t>
         </is>
       </c>
       <c r="C655" t="n">
-        <v>6.59</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="656">
@@ -8951,11 +8953,11 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>jojo romero</t>
+          <t>ben rortvedt</t>
         </is>
       </c>
       <c r="C656" t="n">
-        <v>3.36</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="657">
@@ -8964,11 +8966,11 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>ben rortvedt</t>
+          <t>kenny rosenberg</t>
         </is>
       </c>
       <c r="C657" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="658">
@@ -8977,11 +8979,11 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>kenny rosenberg</t>
+          <t>joe ross</t>
         </is>
       </c>
       <c r="C658" t="n">
-        <v>6</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="659">
@@ -8990,11 +8992,11 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>joe ross</t>
+          <t>landen roupp</t>
         </is>
       </c>
       <c r="C659" t="n">
-        <v>3.69</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="660">
@@ -9003,11 +9005,11 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>landen roupp</t>
+          <t>chris roycroft</t>
         </is>
       </c>
       <c r="C660" t="n">
-        <v>3.58</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="661">
@@ -9016,11 +9018,11 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>chris roycroft</t>
+          <t>josé ruiz</t>
         </is>
       </c>
       <c r="C661" t="n">
-        <v>4.19</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="662">
@@ -9029,11 +9031,11 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>josé ruiz</t>
+          <t>jackson rutledge</t>
         </is>
       </c>
       <c r="C662" t="n">
-        <v>3.78</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="663">
@@ -9042,11 +9044,11 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>jackson rutledge</t>
+          <t>joe ryan</t>
         </is>
       </c>
       <c r="C663" t="n">
-        <v>3.24</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="664">
@@ -9055,11 +9057,11 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>joe ryan</t>
+          <t>river ryan</t>
         </is>
       </c>
       <c r="C664" t="n">
-        <v>3.6</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="665">
@@ -9068,11 +9070,11 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>river ryan</t>
+          <t>ryder ryan</t>
         </is>
       </c>
       <c r="C665" t="n">
-        <v>1.33</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="666">
@@ -9081,11 +9083,11 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>ryder ryan</t>
+          <t>andrew saalfrank</t>
         </is>
       </c>
       <c r="C666" t="n">
-        <v>5.66</v>
+        <v>36</v>
       </c>
     </row>
     <row r="667">
@@ -9094,11 +9096,11 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>andrew saalfrank</t>
+          <t>erik sabrowski</t>
         </is>
       </c>
       <c r="C667" t="n">
-        <v>36</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="668">
@@ -9107,11 +9109,11 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>erik sabrowski</t>
+          <t>eduardo salazar</t>
         </is>
       </c>
       <c r="C668" t="n">
-        <v>0.5</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="669">
@@ -9120,11 +9122,11 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>eduardo salazar</t>
+          <t>chris sale</t>
         </is>
       </c>
       <c r="C669" t="n">
-        <v>2.76</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="670">
@@ -9133,11 +9135,11 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>chris sale</t>
+          <t>bryan sammons</t>
         </is>
       </c>
       <c r="C670" t="n">
-        <v>2.38</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="671">
@@ -9146,11 +9148,11 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>bryan sammons</t>
+          <t>cristopher sánchez</t>
         </is>
       </c>
       <c r="C671" t="n">
-        <v>3.62</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="672">
@@ -9159,11 +9161,11 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>cristopher sánchez</t>
+          <t>sixto sánchez</t>
         </is>
       </c>
       <c r="C672" t="n">
-        <v>3.33</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="673">
@@ -9172,11 +9174,11 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>sixto sánchez</t>
+          <t>nick sandlin</t>
         </is>
       </c>
       <c r="C673" t="n">
-        <v>6.06</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="674">
@@ -9185,11 +9187,11 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>nick sandlin</t>
+          <t>patrick sandoval</t>
         </is>
       </c>
       <c r="C674" t="n">
-        <v>3.75</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="675">
@@ -9198,11 +9200,11 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>patrick sandoval</t>
+          <t>cole sands</t>
         </is>
       </c>
       <c r="C675" t="n">
-        <v>5.08</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="676">
@@ -9211,11 +9213,11 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>cole sands</t>
+          <t>miguel sanó</t>
         </is>
       </c>
       <c r="C676" t="n">
-        <v>3.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677">
@@ -9224,11 +9226,11 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>miguel sanó</t>
+          <t>dennis santana</t>
         </is>
       </c>
       <c r="C677" t="n">
-        <v>0</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="678">
@@ -9237,11 +9239,11 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>dennis santana</t>
+          <t>tony santillan</t>
         </is>
       </c>
       <c r="C678" t="n">
-        <v>3.89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="679">
@@ -9250,11 +9252,11 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>tony santillan</t>
+          <t>gregory santos</t>
         </is>
       </c>
       <c r="C679" t="n">
-        <v>3</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="680">
@@ -9263,11 +9265,11 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>gregory santos</t>
+          <t>tayler saucedo</t>
         </is>
       </c>
       <c r="C680" t="n">
-        <v>4.91</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="681">
@@ -9276,11 +9278,11 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>tayler saucedo</t>
+          <t>matt sauer</t>
         </is>
       </c>
       <c r="C681" t="n">
-        <v>3.49</v>
+        <v>7.71</v>
       </c>
     </row>
     <row r="682">
@@ -9289,11 +9291,11 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>matt sauer</t>
+          <t>josh sborz</t>
         </is>
       </c>
       <c r="C682" t="n">
-        <v>7.71</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="683">
@@ -9302,11 +9304,11 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>josh sborz</t>
+          <t>max scherzer</t>
         </is>
       </c>
       <c r="C683" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="684">
@@ -9315,11 +9317,11 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>max scherzer</t>
+          <t>clarke schmidt</t>
         </is>
       </c>
       <c r="C684" t="n">
-        <v>3.95</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="685">
@@ -9328,11 +9330,11 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>clarke schmidt</t>
+          <t>john schreiber</t>
         </is>
       </c>
       <c r="C685" t="n">
-        <v>3.14</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="686">
@@ -9341,11 +9343,11 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>john schreiber</t>
+          <t>spencer schwellenbach</t>
         </is>
       </c>
       <c r="C686" t="n">
-        <v>3.42</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="687">
@@ -9354,11 +9356,11 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>spencer schwellenbach</t>
+          <t>christian scott</t>
         </is>
       </c>
       <c r="C687" t="n">
-        <v>3.35</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="688">
@@ -9367,11 +9369,11 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>christian scott</t>
+          <t>tanner scott</t>
         </is>
       </c>
       <c r="C688" t="n">
-        <v>4.56</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="689">
@@ -9380,11 +9382,11 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>tanner scott</t>
+          <t>tayler scott</t>
         </is>
       </c>
       <c r="C689" t="n">
-        <v>1.65</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="690">
@@ -9393,11 +9395,11 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>tayler scott</t>
+          <t>jp sears</t>
         </is>
       </c>
       <c r="C690" t="n">
-        <v>2.23</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="691">
@@ -9406,11 +9408,11 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>jp sears</t>
+          <t>colin selby</t>
         </is>
       </c>
       <c r="C691" t="n">
-        <v>4.38</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="692">
@@ -9419,11 +9421,11 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>colin selby</t>
+          <t>kodai senga</t>
         </is>
       </c>
       <c r="C692" t="n">
-        <v>2.57</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="693">
@@ -9432,11 +9434,11 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>kodai senga</t>
+          <t>antonio senzatela</t>
         </is>
       </c>
       <c r="C693" t="n">
-        <v>7.84</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="694">
@@ -9445,11 +9447,11 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>antonio senzatela</t>
+          <t>luis severino</t>
         </is>
       </c>
       <c r="C694" t="n">
-        <v>6.57</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="695">
@@ -9458,11 +9460,11 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>luis severino</t>
+          <t>paul sewald</t>
         </is>
       </c>
       <c r="C695" t="n">
-        <v>3.85</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="696">
@@ -9471,11 +9473,11 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>paul sewald</t>
+          <t>bryan shaw</t>
         </is>
       </c>
       <c r="C696" t="n">
-        <v>4.31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="697">
@@ -9484,11 +9486,11 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>bryan shaw</t>
+          <t>chasen shreve</t>
         </is>
       </c>
       <c r="C697" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698">
@@ -9497,11 +9499,11 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>chasen shreve</t>
+          <t>chase shugart</t>
         </is>
       </c>
       <c r="C698" t="n">
-        <v>0</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="699">
@@ -9510,11 +9512,11 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>chase shugart</t>
+          <t>jared shuster</t>
         </is>
       </c>
       <c r="C699" t="n">
-        <v>4.15</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="700">
@@ -9523,11 +9525,11 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>jared shuster</t>
+          <t>chase silseth</t>
         </is>
       </c>
       <c r="C700" t="n">
-        <v>4.3</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="701">
@@ -9536,11 +9538,11 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>chase silseth</t>
+          <t>lucas sims</t>
         </is>
       </c>
       <c r="C701" t="n">
-        <v>6.75</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="702">
@@ -9549,11 +9551,11 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>lucas sims</t>
+          <t>brady singer</t>
         </is>
       </c>
       <c r="C702" t="n">
-        <v>4.38</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="703">
@@ -9562,11 +9564,11 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>brady singer</t>
+          <t>paul skenes</t>
         </is>
       </c>
       <c r="C703" t="n">
-        <v>3.7</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="704">
@@ -9575,11 +9577,11 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>paul skenes</t>
+          <t>tarik skubal</t>
         </is>
       </c>
       <c r="C704" t="n">
-        <v>1.96</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="705">
@@ -9588,11 +9590,11 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>tarik skubal</t>
+          <t>justin slaten</t>
         </is>
       </c>
       <c r="C705" t="n">
-        <v>2.39</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="706">
@@ -9601,11 +9603,11 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>justin slaten</t>
+          <t>burch smith</t>
         </is>
       </c>
       <c r="C706" t="n">
-        <v>2.93</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="707">
@@ -9614,11 +9616,11 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>burch smith</t>
+          <t>cade smith</t>
         </is>
       </c>
       <c r="C707" t="n">
-        <v>4.95</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="708">
@@ -9627,11 +9629,11 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>cade smith</t>
+          <t>dominic smith</t>
         </is>
       </c>
       <c r="C708" t="n">
-        <v>2.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709">
@@ -9640,11 +9642,11 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>dominic smith</t>
+          <t>drew smith</t>
         </is>
       </c>
       <c r="C709" t="n">
-        <v>0</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="710">
@@ -9653,11 +9655,11 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>drew smith</t>
+          <t>pavin smith</t>
         </is>
       </c>
       <c r="C710" t="n">
-        <v>3.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711">
@@ -9666,11 +9668,11 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>pavin smith</t>
+          <t>will smith</t>
         </is>
       </c>
       <c r="C711" t="n">
-        <v>0</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="712">
@@ -9679,11 +9681,11 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>will smith</t>
+          <t>aj smith-shawver</t>
         </is>
       </c>
       <c r="C712" t="n">
-        <v>6.53</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="713">
@@ -9692,11 +9694,11 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>aj smith-shawver</t>
+          <t>drew smyly</t>
         </is>
       </c>
       <c r="C713" t="n">
-        <v>4.76</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="714">
@@ -9705,11 +9707,11 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>drew smyly</t>
+          <t>kirby snead</t>
         </is>
       </c>
       <c r="C714" t="n">
-        <v>3.84</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="715">
@@ -9718,11 +9720,11 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>kirby snead</t>
+          <t>blake snell</t>
         </is>
       </c>
       <c r="C715" t="n">
-        <v>4.35</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="716">
@@ -9731,11 +9733,11 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>blake snell</t>
+          <t>collin snider</t>
         </is>
       </c>
       <c r="C716" t="n">
-        <v>3.12</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="717">
@@ -9744,11 +9746,11 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>collin snider</t>
+          <t>george soriano</t>
         </is>
       </c>
       <c r="C717" t="n">
-        <v>1.94</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="718">
@@ -9757,11 +9759,11 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>george soriano</t>
+          <t>josé soriano</t>
         </is>
       </c>
       <c r="C718" t="n">
-        <v>6.75</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="719">
@@ -9770,11 +9772,11 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>josé soriano</t>
+          <t>michael soroka</t>
         </is>
       </c>
       <c r="C719" t="n">
-        <v>3.42</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="720">
@@ -9783,11 +9785,11 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>michael soroka</t>
+          <t>gregory soto</t>
         </is>
       </c>
       <c r="C720" t="n">
-        <v>4.74</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="721">
@@ -9796,11 +9798,11 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>gregory soto</t>
+          <t>alex speas</t>
         </is>
       </c>
       <c r="C721" t="n">
-        <v>4.36</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="722">
@@ -9809,11 +9811,11 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>alex speas</t>
+          <t>gabe speier</t>
         </is>
       </c>
       <c r="C722" t="n">
-        <v>4.5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="723">
@@ -9822,11 +9824,11 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>gabe speier</t>
+          <t>mitch spence</t>
         </is>
       </c>
       <c r="C723" t="n">
-        <v>5.7</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="724">
@@ -9835,11 +9837,11 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>mitch spence</t>
+          <t>carson spiers</t>
         </is>
       </c>
       <c r="C724" t="n">
-        <v>4.58</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="725">
@@ -9848,11 +9850,11 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>carson spiers</t>
+          <t>jeffrey springs</t>
         </is>
       </c>
       <c r="C725" t="n">
-        <v>5.46</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="726">
@@ -9861,11 +9863,11 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>jeffrey springs</t>
+          <t>ryne stanek</t>
         </is>
       </c>
       <c r="C726" t="n">
-        <v>3.27</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="727">
@@ -9874,11 +9876,11 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>ryne stanek</t>
+          <t>josh staumont</t>
         </is>
       </c>
       <c r="C727" t="n">
-        <v>4.69</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="728">
@@ -9887,11 +9889,11 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>josh staumont</t>
+          <t>justin steele</t>
         </is>
       </c>
       <c r="C728" t="n">
-        <v>3.7</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="729">
@@ -9900,11 +9902,11 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>justin steele</t>
+          <t>michael stefanic</t>
         </is>
       </c>
       <c r="C729" t="n">
-        <v>3.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730">
@@ -9913,11 +9915,11 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>michael stefanic</t>
+          <t>jackson stephens</t>
         </is>
       </c>
       <c r="C730" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="731">
@@ -9926,11 +9928,11 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>jackson stephens</t>
+          <t>justin sterner</t>
         </is>
       </c>
       <c r="C731" t="n">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="732">
@@ -9939,11 +9941,11 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>justin sterner</t>
+          <t>brock stewart</t>
         </is>
       </c>
       <c r="C732" t="n">
-        <v>2.25</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="733">
@@ -9952,11 +9954,11 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>brock stewart</t>
+          <t>gavin stone</t>
         </is>
       </c>
       <c r="C733" t="n">
-        <v>5.17</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="734">
@@ -9965,11 +9967,11 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>gavin stone</t>
+          <t>matt strahm</t>
         </is>
       </c>
       <c r="C734" t="n">
-        <v>3.53</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="735">
@@ -9978,11 +9980,11 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>matt strahm</t>
+          <t>chris stratton</t>
         </is>
       </c>
       <c r="C735" t="n">
-        <v>2.37</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="736">
@@ -9991,11 +9993,11 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>chris stratton</t>
+          <t>hunter stratton</t>
         </is>
       </c>
       <c r="C736" t="n">
-        <v>5.55</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="737">
@@ -10004,11 +10006,11 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>hunter stratton</t>
+          <t>hunter strickland</t>
         </is>
       </c>
       <c r="C737" t="n">
-        <v>3.58</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="738">
@@ -10017,11 +10019,11 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>hunter strickland</t>
+          <t>spencer strider</t>
         </is>
       </c>
       <c r="C738" t="n">
-        <v>3.31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="739">
@@ -10030,11 +10032,11 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>spencer strider</t>
+          <t>ross stripling</t>
         </is>
       </c>
       <c r="C739" t="n">
-        <v>7</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="740">
@@ -10043,11 +10045,11 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>ross stripling</t>
+          <t>marcus stroman</t>
         </is>
       </c>
       <c r="C740" t="n">
-        <v>6.01</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="741">
@@ -10056,11 +10058,11 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>marcus stroman</t>
+          <t>peter strzelecki</t>
         </is>
       </c>
       <c r="C741" t="n">
-        <v>4.31</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="742">
@@ -10069,11 +10071,11 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>peter strzelecki</t>
+          <t>garrett stubbs</t>
         </is>
       </c>
       <c r="C742" t="n">
-        <v>2.31</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="743">
@@ -10082,11 +10084,11 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>garrett stubbs</t>
+          <t>albert suárez</t>
         </is>
       </c>
       <c r="C743" t="n">
-        <v>15.75</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="744">
@@ -10095,11 +10097,11 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>albert suárez</t>
+          <t>josé suarez</t>
         </is>
       </c>
       <c r="C744" t="n">
-        <v>3.7</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="745">
@@ -10108,11 +10110,11 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>josé suarez</t>
+          <t>ranger suárez</t>
         </is>
       </c>
       <c r="C745" t="n">
-        <v>6.02</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="746">
@@ -10121,11 +10123,11 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>ranger suárez</t>
+          <t>robert suarez</t>
         </is>
       </c>
       <c r="C746" t="n">
-        <v>3.37</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="747">
@@ -10134,11 +10136,11 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>robert suarez</t>
+          <t>cole sulser</t>
         </is>
       </c>
       <c r="C747" t="n">
-        <v>2.63</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="748">
@@ -10147,10 +10149,12 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>wander suero</t>
-        </is>
-      </c>
-      <c r="C748" t="inlineStr"/>
+          <t>brent suter</t>
+        </is>
+      </c>
+      <c r="C748" t="n">
+        <v>3.15</v>
+      </c>
     </row>
     <row r="749">
       <c r="A749" s="1" t="n">
@@ -10158,11 +10162,11 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>cole sulser</t>
+          <t>erik swanson</t>
         </is>
       </c>
       <c r="C749" t="n">
-        <v>2.76</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="750">
@@ -10171,11 +10175,11 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>brent suter</t>
+          <t>jameson taillon</t>
         </is>
       </c>
       <c r="C750" t="n">
-        <v>3.15</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="751">
@@ -10184,11 +10188,11 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>erik swanson</t>
+          <t>dillon tate</t>
         </is>
       </c>
       <c r="C751" t="n">
-        <v>4.93</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="752">
@@ -10197,11 +10201,11 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>jameson taillon</t>
+          <t>troy taylor</t>
         </is>
       </c>
       <c r="C752" t="n">
-        <v>3.27</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="753">
@@ -10210,11 +10214,11 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>dillon tate</t>
+          <t>julio teheran</t>
         </is>
       </c>
       <c r="C753" t="n">
-        <v>4.66</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="754">
@@ -10223,11 +10227,11 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>troy taylor</t>
+          <t>rowdy tellez</t>
         </is>
       </c>
       <c r="C754" t="n">
-        <v>3.72</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="755">
@@ -10236,11 +10240,11 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>julio teheran</t>
+          <t>kai-wei teng</t>
         </is>
       </c>
       <c r="C755" t="n">
-        <v>13.5</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="756">
@@ -10249,11 +10253,11 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>rowdy tellez</t>
+          <t>caleb thielbar</t>
         </is>
       </c>
       <c r="C756" t="n">
-        <v>6.75</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="757">
@@ -10262,11 +10266,11 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>kai-wei teng</t>
+          <t>keegan thompson</t>
         </is>
       </c>
       <c r="C757" t="n">
-        <v>9.82</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="758">
@@ -10275,11 +10279,11 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>caleb thielbar</t>
+          <t>ryan thompson</t>
         </is>
       </c>
       <c r="C758" t="n">
-        <v>5.32</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="759">
@@ -10288,11 +10292,11 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>keegan thompson</t>
+          <t>zack thompson</t>
         </is>
       </c>
       <c r="C759" t="n">
-        <v>2.67</v>
+        <v>9.529999999999999</v>
       </c>
     </row>
     <row r="760">
@@ -10301,11 +10305,11 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>ryan thompson</t>
+          <t>trent thornton</t>
         </is>
       </c>
       <c r="C760" t="n">
-        <v>3.26</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="761">
@@ -10314,11 +10318,11 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>zack thompson</t>
+          <t>drew thorpe</t>
         </is>
       </c>
       <c r="C761" t="n">
-        <v>9.529999999999999</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="762">
@@ -10327,11 +10331,11 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>trent thornton</t>
+          <t>jesús tinoco</t>
         </is>
       </c>
       <c r="C762" t="n">
-        <v>3.61</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="763">
@@ -10340,11 +10344,11 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>drew thorpe</t>
+          <t>michael tonkin</t>
         </is>
       </c>
       <c r="C763" t="n">
-        <v>5.48</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="764">
@@ -10353,11 +10357,11 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>jesús tinoco</t>
+          <t>justin topa</t>
         </is>
       </c>
       <c r="C764" t="n">
-        <v>3.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765">
@@ -10366,11 +10370,11 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>michael tonkin</t>
+          <t>luis torrens</t>
         </is>
       </c>
       <c r="C765" t="n">
-        <v>3.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766">
@@ -10379,11 +10383,11 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>justin topa</t>
+          <t>touki toussaint</t>
         </is>
       </c>
       <c r="C766" t="n">
-        <v>0</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="767">
@@ -10392,11 +10396,11 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>luis torrens</t>
+          <t>blake treinen</t>
         </is>
       </c>
       <c r="C767" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="768">
@@ -10405,11 +10409,11 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>touki toussaint</t>
+          <t>jose trevino</t>
         </is>
       </c>
       <c r="C768" t="n">
-        <v>7.43</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="769">
@@ -10418,11 +10422,11 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>blake treinen</t>
+          <t>cole tucker</t>
         </is>
       </c>
       <c r="C769" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770">
@@ -10431,11 +10435,11 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>jose trevino</t>
+          <t>spencer turnbull</t>
         </is>
       </c>
       <c r="C770" t="n">
-        <v>13.5</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="771">
@@ -10444,11 +10448,11 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>cole tucker</t>
+          <t>kyle tyler</t>
         </is>
       </c>
       <c r="C771" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="772">
@@ -10457,11 +10461,11 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>spencer turnbull</t>
+          <t>edwin uceta</t>
         </is>
       </c>
       <c r="C772" t="n">
-        <v>2.65</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="773">
@@ -10470,11 +10474,11 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>kyle tyler</t>
+          <t>josé ureña</t>
         </is>
       </c>
       <c r="C773" t="n">
-        <v>5.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="774">
@@ -10483,11 +10487,11 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>edwin uceta</t>
+          <t>abner uribe</t>
         </is>
       </c>
       <c r="C774" t="n">
-        <v>1.51</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="775">
@@ -10496,11 +10500,11 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>josé ureña</t>
+          <t>naoyuki uwasawa</t>
         </is>
       </c>
       <c r="C775" t="n">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="776">
@@ -10509,11 +10513,11 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>abner uribe</t>
+          <t>framber valdez</t>
         </is>
       </c>
       <c r="C776" t="n">
-        <v>6.91</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="777">
@@ -10522,11 +10526,11 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>naoyuki uwasawa</t>
+          <t>ricky vanasco</t>
         </is>
       </c>
       <c r="C777" t="n">
-        <v>2.25</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="778">
@@ -10535,11 +10539,11 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>framber valdez</t>
+          <t>ildemaro vargas</t>
         </is>
       </c>
       <c r="C778" t="n">
-        <v>2.99</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="779">
@@ -10548,11 +10552,11 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>ricky vanasco</t>
+          <t>gus varland</t>
         </is>
       </c>
       <c r="C779" t="n">
-        <v>6.75</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="780">
@@ -10561,11 +10565,11 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>ildemaro vargas</t>
+          <t>louis varland</t>
         </is>
       </c>
       <c r="C780" t="n">
-        <v>4.5</v>
+        <v>7.61</v>
       </c>
     </row>
     <row r="781">
@@ -10574,11 +10578,11 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>gus varland</t>
+          <t>randy vásquez</t>
         </is>
       </c>
       <c r="C781" t="n">
-        <v>3.42</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="782">
@@ -10587,11 +10591,11 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>louis varland</t>
+          <t>anthony veneziano</t>
         </is>
       </c>
       <c r="C782" t="n">
-        <v>7.61</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="783">
@@ -10600,11 +10604,11 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>randy vásquez</t>
+          <t>justin verlander</t>
         </is>
       </c>
       <c r="C783" t="n">
-        <v>4.87</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="784">
@@ -10613,11 +10617,11 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>anthony veneziano</t>
+          <t>alex vesia</t>
         </is>
       </c>
       <c r="C784" t="n">
-        <v>3.38</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="785">
@@ -10626,11 +10630,11 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>justin verlander</t>
+          <t>nick vespi</t>
         </is>
       </c>
       <c r="C785" t="n">
-        <v>5.48</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="786">
@@ -10639,11 +10643,11 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>alex vesia</t>
+          <t>will vest</t>
         </is>
       </c>
       <c r="C786" t="n">
-        <v>1.63</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="787">
@@ -10652,11 +10656,11 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>nick vespi</t>
+          <t>thyago vieira</t>
         </is>
       </c>
       <c r="C787" t="n">
-        <v>2.92</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="788">
@@ -10665,11 +10669,11 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>will vest</t>
+          <t>eli villalobos</t>
         </is>
       </c>
       <c r="C788" t="n">
-        <v>2.71</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="789">
@@ -10678,11 +10682,11 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>thyago vieira</t>
+          <t>darius vines</t>
         </is>
       </c>
       <c r="C789" t="n">
-        <v>5.21</v>
+        <v>8.56</v>
       </c>
     </row>
     <row r="790">
@@ -10691,11 +10695,11 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>eli villalobos</t>
+          <t>victor vodnik</t>
         </is>
       </c>
       <c r="C790" t="n">
-        <v>2.08</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="791">
@@ -10704,11 +10708,11 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>darius vines</t>
+          <t>austin voth</t>
         </is>
       </c>
       <c r="C791" t="n">
-        <v>8.56</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="792">
@@ -10717,11 +10721,11 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>victor vodnik</t>
+          <t>michael wacha</t>
         </is>
       </c>
       <c r="C792" t="n">
-        <v>4.28</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="793">
@@ -10730,11 +10734,11 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>austin voth</t>
+          <t>jacob waguespack</t>
         </is>
       </c>
       <c r="C793" t="n">
-        <v>3.69</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="794">
@@ -10743,11 +10747,11 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>michael wacha</t>
+          <t>hurston waldrep</t>
         </is>
       </c>
       <c r="C794" t="n">
-        <v>3.44</v>
+        <v>16.71</v>
       </c>
     </row>
     <row r="795">
@@ -10756,11 +10760,11 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>jacob waguespack</t>
+          <t>matt waldron</t>
         </is>
       </c>
       <c r="C795" t="n">
-        <v>5.4</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="796">
@@ -10769,11 +10773,11 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>hurston waldrep</t>
+          <t>josh walker</t>
         </is>
       </c>
       <c r="C796" t="n">
-        <v>16.71</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="797">
@@ -10782,11 +10786,11 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>matt waldron</t>
+          <t>ryan walker</t>
         </is>
       </c>
       <c r="C797" t="n">
-        <v>4.91</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="798">
@@ -10795,11 +10799,11 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>josh walker</t>
+          <t>taijuan walker</t>
         </is>
       </c>
       <c r="C798" t="n">
-        <v>5.11</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="799">
@@ -10808,11 +10812,11 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>ryan walker</t>
+          <t>matt wallner</t>
         </is>
       </c>
       <c r="C799" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800">
@@ -10821,11 +10825,11 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>taijuan walker</t>
+          <t>blake walston</t>
         </is>
       </c>
       <c r="C800" t="n">
-        <v>7.1</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="801">
@@ -10834,11 +10838,11 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>matt wallner</t>
+          <t>andrew walters</t>
         </is>
       </c>
       <c r="C801" t="n">
-        <v>0</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="802">
@@ -10847,11 +10851,11 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>blake walston</t>
+          <t>donovan walton</t>
         </is>
       </c>
       <c r="C802" t="n">
-        <v>4.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803">
@@ -10860,11 +10864,11 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>andrew walters</t>
+          <t>andrew wantz</t>
         </is>
       </c>
       <c r="C803" t="n">
-        <v>0.77</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="804">
@@ -10873,11 +10877,11 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>donovan walton</t>
+          <t>austin warren</t>
         </is>
       </c>
       <c r="C804" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="805">
@@ -10886,11 +10890,11 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>andrew wantz</t>
+          <t>will warren</t>
         </is>
       </c>
       <c r="C805" t="n">
-        <v>6.75</v>
+        <v>10.32</v>
       </c>
     </row>
     <row r="806">
@@ -10899,11 +10903,11 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>austin warren</t>
+          <t>ryan weathers</t>
         </is>
       </c>
       <c r="C806" t="n">
-        <v>1.69</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="807">
@@ -10912,11 +10916,11 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>will warren</t>
+          <t>luke weaver</t>
         </is>
       </c>
       <c r="C807" t="n">
-        <v>10.32</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="808">
@@ -10925,11 +10929,11 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>ryan weathers</t>
+          <t>jacob webb</t>
         </is>
       </c>
       <c r="C808" t="n">
-        <v>3.63</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="809">
@@ -10938,11 +10942,11 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>luke weaver</t>
+          <t>logan webb</t>
         </is>
       </c>
       <c r="C809" t="n">
-        <v>2.72</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="810">
@@ -10951,11 +10955,11 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>jacob webb</t>
+          <t>jordan weems</t>
         </is>
       </c>
       <c r="C810" t="n">
-        <v>2.98</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="811">
@@ -10964,11 +10968,11 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>logan webb</t>
+          <t>greg weissert</t>
         </is>
       </c>
       <c r="C811" t="n">
-        <v>3.47</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="812">
@@ -10977,11 +10981,11 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>jordan weems</t>
+          <t>tyler wells</t>
         </is>
       </c>
       <c r="C812" t="n">
-        <v>6.7</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="813">
@@ -10990,11 +10994,11 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>greg weissert</t>
+          <t>joey wentz</t>
         </is>
       </c>
       <c r="C813" t="n">
-        <v>3.13</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="814">
@@ -11003,11 +11007,11 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>tyler wells</t>
+          <t>hayden wesneski</t>
         </is>
       </c>
       <c r="C814" t="n">
-        <v>5.87</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="815">
@@ -11016,11 +11020,11 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>joey wentz</t>
+          <t>zack wheeler</t>
         </is>
       </c>
       <c r="C815" t="n">
-        <v>4.68</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="816">
@@ -11029,11 +11033,11 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>hayden wesneski</t>
+          <t>mitch white</t>
         </is>
       </c>
       <c r="C816" t="n">
-        <v>3.86</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="817">
@@ -11042,11 +11046,11 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>zack wheeler</t>
+          <t>owen white</t>
         </is>
       </c>
       <c r="C817" t="n">
-        <v>2.48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="818">
@@ -11055,11 +11059,11 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>mitch white</t>
+          <t>forrest whitley</t>
         </is>
       </c>
       <c r="C818" t="n">
-        <v>7.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819">
@@ -11068,11 +11072,11 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>owen white</t>
+          <t>garrett whitlock</t>
         </is>
       </c>
       <c r="C819" t="n">
-        <v>24</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="820">
@@ -11081,11 +11085,11 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>forrest whitley</t>
+          <t>jordan wicks</t>
         </is>
       </c>
       <c r="C820" t="n">
-        <v>0</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="821">
@@ -11094,11 +11098,11 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>garrett whitlock</t>
+          <t>devin williams</t>
         </is>
       </c>
       <c r="C821" t="n">
-        <v>1.96</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="822">
@@ -11107,11 +11111,11 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>jordan wicks</t>
+          <t>gavin williams</t>
         </is>
       </c>
       <c r="C822" t="n">
-        <v>5.48</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="823">
@@ -11120,11 +11124,11 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>devin williams</t>
+          <t>luke williams</t>
         </is>
       </c>
       <c r="C823" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="824">
@@ -11133,11 +11137,11 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>gavin williams</t>
+          <t>trevor williams</t>
         </is>
       </c>
       <c r="C824" t="n">
-        <v>5.06</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="825">
@@ -11146,11 +11150,11 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>luke williams</t>
+          <t>brandon williamson</t>
         </is>
       </c>
       <c r="C825" t="n">
-        <v>4.5</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="826">
@@ -11159,11 +11163,11 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>trevor williams</t>
+          <t>amos willingham</t>
         </is>
       </c>
       <c r="C826" t="n">
-        <v>2.03</v>
+        <v>18</v>
       </c>
     </row>
     <row r="827">
@@ -11172,11 +11176,11 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>brandon williamson</t>
+          <t>bryse wilson</t>
         </is>
       </c>
       <c r="C827" t="n">
-        <v>3.77</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="828">
@@ -11185,11 +11189,11 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>amos willingham</t>
+          <t>justin wilson</t>
         </is>
       </c>
       <c r="C828" t="n">
-        <v>18</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="829">
@@ -11198,11 +11202,11 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>bryse wilson</t>
+          <t>steven wilson</t>
         </is>
       </c>
       <c r="C829" t="n">
-        <v>4.04</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="830">
@@ -11211,11 +11215,11 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>justin wilson</t>
+          <t>weston wilson</t>
         </is>
       </c>
       <c r="C830" t="n">
-        <v>5.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831">
@@ -11224,11 +11228,11 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>steven wilson</t>
+          <t>allan winans</t>
         </is>
       </c>
       <c r="C831" t="n">
-        <v>5.71</v>
+        <v>15.26</v>
       </c>
     </row>
     <row r="832">
@@ -11237,11 +11241,11 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>weston wilson</t>
+          <t>josh winckowski</t>
         </is>
       </c>
       <c r="C832" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="833">
@@ -11250,11 +11254,11 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>allan winans</t>
+          <t>josh winder</t>
         </is>
       </c>
       <c r="C833" t="n">
-        <v>15.26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="834">
@@ -11263,11 +11267,11 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>josh winckowski</t>
+          <t>trey wingenter</t>
         </is>
       </c>
       <c r="C834" t="n">
-        <v>4.2</v>
+        <v>9.720000000000001</v>
       </c>
     </row>
     <row r="835">
@@ -11276,11 +11280,11 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>josh winder</t>
+          <t>cole winn</t>
         </is>
       </c>
       <c r="C835" t="n">
-        <v>3</v>
+        <v>7.79</v>
       </c>
     </row>
     <row r="836">
@@ -11289,11 +11293,11 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>trey wingenter</t>
+          <t>keaton winn</t>
         </is>
       </c>
       <c r="C836" t="n">
-        <v>9.720000000000001</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="837">
@@ -11302,11 +11306,11 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>cole winn</t>
+          <t>patrick wisdom</t>
         </is>
       </c>
       <c r="C837" t="n">
-        <v>7.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838">
@@ -11315,11 +11319,11 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>keaton winn</t>
+          <t>bryan woo</t>
         </is>
       </c>
       <c r="C838" t="n">
-        <v>7.16</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="839">
@@ -11328,11 +11332,11 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>patrick wisdom</t>
+          <t>alex wood</t>
         </is>
       </c>
       <c r="C839" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="840">
@@ -11341,11 +11345,11 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>bryan woo</t>
+          <t>jake woodford</t>
         </is>
       </c>
       <c r="C840" t="n">
-        <v>2.89</v>
+        <v>7.97</v>
       </c>
     </row>
     <row r="841">
@@ -11354,11 +11358,11 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>alex wood</t>
+          <t>simeon woods richardson</t>
         </is>
       </c>
       <c r="C841" t="n">
-        <v>5.26</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="842">
@@ -11367,11 +11371,11 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>jake woodford</t>
+          <t>justin wrobleski</t>
         </is>
       </c>
       <c r="C842" t="n">
-        <v>7.97</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="843">
@@ -11380,11 +11384,11 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>simeon woods richardson</t>
+          <t>yoshinobu yamamoto</t>
         </is>
       </c>
       <c r="C843" t="n">
-        <v>4.17</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="844">
@@ -11393,11 +11397,11 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>justin wrobleski</t>
+          <t>ryan yarbrough</t>
         </is>
       </c>
       <c r="C844" t="n">
-        <v>5.7</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="845">
@@ -11406,11 +11410,11 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>yoshinobu yamamoto</t>
+          <t>mike yastrzemski</t>
         </is>
       </c>
       <c r="C845" t="n">
-        <v>3.15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="846">
@@ -11419,11 +11423,11 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>ryan yarbrough</t>
+          <t>kirby yates</t>
         </is>
       </c>
       <c r="C846" t="n">
-        <v>3.3</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="847">
@@ -11432,11 +11436,11 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>mike yastrzemski</t>
+          <t>alex young</t>
         </is>
       </c>
       <c r="C847" t="n">
-        <v>18</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="848">
@@ -11445,11 +11449,11 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>kirby yates</t>
+          <t>danny young</t>
         </is>
       </c>
       <c r="C848" t="n">
-        <v>1.17</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="849">
@@ -11458,11 +11462,11 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>alex young</t>
+          <t>rob zastryzny</t>
         </is>
       </c>
       <c r="C849" t="n">
-        <v>2.87</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="850">
@@ -11471,11 +11475,11 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>danny young</t>
+          <t>ryan zeferjahn</t>
         </is>
       </c>
       <c r="C850" t="n">
-        <v>4.79</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="851">
@@ -11484,11 +11488,11 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>rob zastryzny</t>
+          <t>angel zerpa</t>
         </is>
       </c>
       <c r="C851" t="n">
-        <v>1.17</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="852">
@@ -11497,11 +11501,11 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>ryan zeferjahn</t>
+          <t>tyler zuber</t>
         </is>
       </c>
       <c r="C852" t="n">
-        <v>2.12</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="853">
@@ -11510,11 +11514,11 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>angel zerpa</t>
+          <t>yosver zulueta</t>
         </is>
       </c>
       <c r="C853" t="n">
-        <v>3.75</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="854">
@@ -11523,11 +11527,11 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>tyler zuber</t>
+          <t>guillo zuñiga</t>
         </is>
       </c>
       <c r="C854" t="n">
-        <v>2.7</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="855">
@@ -11536,11 +11540,11 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>yosver zulueta</t>
+          <t>brent honeywell</t>
         </is>
       </c>
       <c r="C855" t="n">
-        <v>4.96</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="856">
@@ -11549,11 +11553,154 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>guillo zuñiga</t>
+          <t>daniel lynch</t>
         </is>
       </c>
       <c r="C856" t="n">
-        <v>5.09</v>
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="1" t="n">
+        <v>855</v>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>j.b. bukauskas</t>
+        </is>
+      </c>
+      <c r="C857" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="1" t="n">
+        <v>856</v>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>j.t. chargois</t>
+        </is>
+      </c>
+      <c r="C858" t="n">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="1" t="n">
+        <v>857</v>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>jose ferrer</t>
+        </is>
+      </c>
+      <c r="C859" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="1" t="n">
+        <v>858</v>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>julio teherán</t>
+        </is>
+      </c>
+      <c r="C860" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="1" t="n">
+        <v>859</v>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>mark leiter</t>
+        </is>
+      </c>
+      <c r="C861" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="1" t="n">
+        <v>860</v>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>matt boyd</t>
+        </is>
+      </c>
+      <c r="C862" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="1" t="n">
+        <v>861</v>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>matthew bowman</t>
+        </is>
+      </c>
+      <c r="C863" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="1" t="n">
+        <v>862</v>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>mike king</t>
+        </is>
+      </c>
+      <c r="C864" t="n">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="1" t="n">
+        <v>863</v>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>néstor cortés</t>
+        </is>
+      </c>
+      <c r="C865" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="1" t="n">
+        <v>864</v>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>nick martínez</t>
+        </is>
+      </c>
+      <c r="C866" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="1" t="n">
+        <v>865</v>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>vladimir gutiérrez</t>
+        </is>
+      </c>
+      <c r="C867" t="n">
+        <v>6.75</v>
       </c>
     </row>
   </sheetData>
